--- a/Test/Data-M_c=5.xlsx
+++ b/Test/Data-M_c=5.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18455" windowHeight="9852"/>
+    <workbookView windowWidth="18468" windowHeight="9252"/>
   </bookViews>
   <sheets>
     <sheet name="Data-M_c=5" sheetId="1" r:id="rId1"/>
@@ -72,8 +72,15 @@
     <font>
       <sz val="14"/>
       <color theme="1"/>
-      <name val=".萍方-简"/>
+      <name val="Droid Sans Mono"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -98,25 +105,32 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -128,9 +142,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -144,7 +165,7 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -161,21 +182,7 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -197,16 +204,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -229,13 +229,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -247,91 +277,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -349,7 +301,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -361,31 +385,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -397,19 +397,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -420,6 +420,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -438,6 +447,30 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -449,26 +482,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -488,35 +506,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -528,10 +528,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -540,144 +540,147 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1007,15 +1010,15 @@
   <sheetPr/>
   <dimension ref="A1:J201"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H154" workbookViewId="0">
-      <selection activeCell="K160" sqref="K160"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.625" defaultRowHeight="20.4"/>
   <cols>
     <col min="5" max="6" width="9.3125" customWidth="1"/>
-    <col min="7" max="9" width="11.6875"/>
-    <col min="10" max="10" width="10.75"/>
+    <col min="7" max="9" width="11.6875" style="1"/>
+    <col min="10" max="10" width="10.75" style="1"/>
     <col min="11" max="11" width="12.3125"/>
   </cols>
   <sheetData>
@@ -1038,13 +1041,14 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="J1" t="s">
+      <c r="I1" s="1"/>
+      <c r="J1" s="2" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1064,19 +1068,19 @@
       <c r="E2">
         <v>0.0234527084693101</v>
       </c>
-      <c r="F2" s="1">
+      <c r="F2" s="3">
         <v>5.15</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="I2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="2">
+      <c r="J2" s="4">
         <v>0</v>
       </c>
     </row>
@@ -1100,19 +1104,19 @@
         <f>F2+0.0369346733668338</f>
         <v>5.18693467336683</v>
       </c>
-      <c r="G3" s="3">
+      <c r="G3" s="4">
         <f>5/2*(1/C3+1/C2)*(C3-C2)</f>
         <v>-0.0280750259840111</v>
       </c>
-      <c r="H3" s="3">
+      <c r="H3" s="4">
         <f>(1/B3+1/B2)*(B3-B2)</f>
         <v>1.57969904582153</v>
       </c>
-      <c r="I3" s="3">
+      <c r="I3" s="4">
         <f>83140000/2.4942*(G3+H3)/((E2+E3)*31560000000000)</f>
         <v>6.07066850363455e-5</v>
       </c>
-      <c r="J3" s="3">
+      <c r="J3" s="4">
         <f>J2+I3</f>
         <v>6.07066850363455e-5</v>
       </c>
@@ -1137,19 +1141,19 @@
         <f t="shared" ref="F4:F35" si="0">F3+0.0369346733668338</f>
         <v>5.22386934673367</v>
       </c>
-      <c r="G4" s="3">
+      <c r="G4" s="4">
         <f t="shared" ref="G4:G35" si="1">5/2*(1/C4+1/C3)*(C4-C3)</f>
         <v>-0.0160072214621234</v>
       </c>
-      <c r="H4" s="3">
+      <c r="H4" s="4">
         <f t="shared" ref="H4:H35" si="2">(1/B4+1/B3)*(B4-B3)</f>
         <v>1.03014217423125</v>
       </c>
-      <c r="I4" s="3">
+      <c r="I4" s="4">
         <f t="shared" ref="I4:I35" si="3">83140000/2.4942*(G4+H4)/((E3+E4)*31560000000000)</f>
         <v>0.000239271964048162</v>
       </c>
-      <c r="J4" s="3">
+      <c r="J4" s="4">
         <f t="shared" ref="J4:J35" si="4">J3+I4</f>
         <v>0.000299978649084507</v>
       </c>
@@ -1174,19 +1178,19 @@
         <f t="shared" si="0"/>
         <v>5.2608040201005</v>
       </c>
-      <c r="G5" s="3">
+      <c r="G5" s="4">
         <f t="shared" si="1"/>
         <v>-0.00906872720853044</v>
       </c>
-      <c r="H5" s="3">
+      <c r="H5" s="4">
         <f t="shared" si="2"/>
         <v>0.740017245029406</v>
       </c>
-      <c r="I5" s="3">
+      <c r="I5" s="4">
         <f t="shared" si="3"/>
         <v>0.000602941193574149</v>
       </c>
-      <c r="J5" s="3">
+      <c r="J5" s="4">
         <f t="shared" si="4"/>
         <v>0.000902919842658656</v>
       </c>
@@ -1211,19 +1215,19 @@
         <f t="shared" si="0"/>
         <v>5.29773869346734</v>
       </c>
-      <c r="G6" s="3">
+      <c r="G6" s="4">
         <f t="shared" si="1"/>
         <v>-0.00480702710163138</v>
       </c>
-      <c r="H6" s="3">
+      <c r="H6" s="4">
         <f t="shared" si="2"/>
         <v>0.568875693831798</v>
       </c>
-      <c r="I6" s="3">
+      <c r="I6" s="4">
         <f t="shared" si="3"/>
         <v>0.00117631142461454</v>
       </c>
-      <c r="J6" s="3">
+      <c r="J6" s="4">
         <f t="shared" si="4"/>
         <v>0.0020792312672732</v>
       </c>
@@ -1241,26 +1245,26 @@
       <c r="D7">
         <v>50.3666411248516</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E7" s="5">
         <v>8.52180600714975e-5</v>
       </c>
       <c r="F7">
         <f t="shared" si="0"/>
         <v>5.33467336683417</v>
       </c>
-      <c r="G7" s="3">
+      <c r="G7" s="4">
         <f t="shared" si="1"/>
         <v>-0.00199238618695615</v>
       </c>
-      <c r="H7" s="3">
+      <c r="H7" s="4">
         <f t="shared" si="2"/>
         <v>0.457814618480338</v>
       </c>
-      <c r="I7" s="3">
+      <c r="I7" s="4">
         <f t="shared" si="3"/>
         <v>0.00196486373409784</v>
       </c>
-      <c r="J7" s="3">
+      <c r="J7" s="4">
         <f t="shared" si="4"/>
         <v>0.00404409500137104</v>
       </c>
@@ -1278,26 +1282,26 @@
       <c r="D8">
         <v>34.7014228416153</v>
       </c>
-      <c r="E8" s="4">
+      <c r="E8" s="5">
         <v>5.04042508896376e-5</v>
       </c>
       <c r="F8">
         <f t="shared" si="0"/>
         <v>5.371608040201</v>
       </c>
-      <c r="G8" s="3">
+      <c r="G8" s="4">
         <f t="shared" si="1"/>
         <v>-2.59374144902825e-5</v>
       </c>
-      <c r="H8" s="3">
+      <c r="H8" s="4">
         <f t="shared" si="2"/>
         <v>0.380541820396896</v>
       </c>
-      <c r="I8" s="3">
+      <c r="I8" s="4">
         <f t="shared" si="3"/>
         <v>0.00296335307580607</v>
       </c>
-      <c r="J8" s="3">
+      <c r="J8" s="4">
         <f t="shared" si="4"/>
         <v>0.00700744807717711</v>
       </c>
@@ -1315,26 +1319,26 @@
       <c r="D9">
         <v>25.3307806512658</v>
       </c>
-      <c r="E9" s="4">
+      <c r="E9" s="5">
         <v>3.219827626671e-5</v>
       </c>
       <c r="F9">
         <f t="shared" si="0"/>
         <v>5.40854271356784</v>
       </c>
-      <c r="G9" s="3">
+      <c r="G9" s="4">
         <f t="shared" si="1"/>
         <v>0.0014069001824891</v>
       </c>
-      <c r="H9" s="3">
+      <c r="H9" s="4">
         <f t="shared" si="2"/>
         <v>0.323939280025902</v>
       </c>
-      <c r="I9" s="3">
+      <c r="I9" s="4">
         <f t="shared" si="3"/>
         <v>0.00416000764279172</v>
       </c>
-      <c r="J9" s="3">
+      <c r="J9" s="4">
         <f t="shared" si="4"/>
         <v>0.0111674557199688</v>
       </c>
@@ -1352,26 +1356,26 @@
       <c r="D10">
         <v>19.3252245427924</v>
       </c>
-      <c r="E10" s="4">
+      <c r="E10" s="5">
         <v>2.18230966181871e-5</v>
       </c>
       <c r="F10">
         <f t="shared" si="0"/>
         <v>5.44547738693467</v>
       </c>
-      <c r="G10" s="3">
+      <c r="G10" s="4">
         <f t="shared" si="1"/>
         <v>0.00248424949601625</v>
       </c>
-      <c r="H10" s="3">
+      <c r="H10" s="4">
         <f t="shared" si="2"/>
         <v>0.280825350402805</v>
       </c>
-      <c r="I10" s="3">
+      <c r="I10" s="4">
         <f t="shared" si="3"/>
         <v>0.00553907728129266</v>
       </c>
-      <c r="J10" s="3">
+      <c r="J10" s="4">
         <f t="shared" si="4"/>
         <v>0.0167065330012615</v>
       </c>
@@ -1389,26 +1393,26 @@
       <c r="D11">
         <v>15.2644461689343</v>
       </c>
-      <c r="E11" s="4">
+      <c r="E11" s="5">
         <v>1.55003416877912e-5</v>
       </c>
       <c r="F11">
         <f t="shared" si="0"/>
         <v>5.48241206030151</v>
       </c>
-      <c r="G11" s="3">
+      <c r="G11" s="4">
         <f t="shared" si="1"/>
         <v>0.00331334483455571</v>
       </c>
-      <c r="H11" s="3">
+      <c r="H11" s="4">
         <f t="shared" si="2"/>
         <v>0.246967357371003</v>
       </c>
-      <c r="I11" s="3">
+      <c r="I11" s="4">
         <f t="shared" si="3"/>
         <v>0.00708251447172389</v>
       </c>
-      <c r="J11" s="3">
+      <c r="J11" s="4">
         <f t="shared" si="4"/>
         <v>0.0237890474729854</v>
       </c>
@@ -1426,26 +1430,26 @@
       <c r="D12">
         <v>12.3988762120272</v>
       </c>
-      <c r="E12" s="4">
+      <c r="E12" s="5">
         <v>1.14347234313992e-5</v>
       </c>
       <c r="F12">
         <f t="shared" si="0"/>
         <v>5.51934673366834</v>
       </c>
-      <c r="G12" s="3">
+      <c r="G12" s="4">
         <f t="shared" si="1"/>
         <v>0.00396325788936053</v>
       </c>
-      <c r="H12" s="3">
+      <c r="H12" s="4">
         <f t="shared" si="2"/>
         <v>0.219717939396015</v>
       </c>
-      <c r="I12" s="3">
+      <c r="I12" s="4">
         <f t="shared" si="3"/>
         <v>0.00877108257324171</v>
       </c>
-      <c r="J12" s="3">
+      <c r="J12" s="4">
         <f t="shared" si="4"/>
         <v>0.0325601300462271</v>
       </c>
@@ -1463,26 +1467,26 @@
       <c r="D13">
         <v>10.3051429311338</v>
       </c>
-      <c r="E13" s="4">
+      <c r="E13" s="5">
         <v>8.70320033231953e-6</v>
       </c>
       <c r="F13">
         <f t="shared" si="0"/>
         <v>5.55628140703517</v>
       </c>
-      <c r="G13" s="3">
+      <c r="G13" s="4">
         <f t="shared" si="1"/>
         <v>0.00447943875251861</v>
       </c>
-      <c r="H13" s="3">
+      <c r="H13" s="4">
         <f t="shared" si="2"/>
         <v>0.197343081506697</v>
       </c>
-      <c r="I13" s="3">
+      <c r="I13" s="4">
         <f t="shared" si="3"/>
         <v>0.0105851418778325</v>
       </c>
-      <c r="J13" s="3">
+      <c r="J13" s="4">
         <f t="shared" si="4"/>
         <v>0.0431452719240596</v>
       </c>
@@ -1500,26 +1504,26 @@
       <c r="D14">
         <v>8.73061788672807</v>
       </c>
-      <c r="E14" s="4">
+      <c r="E14" s="5">
         <v>6.79979931582332e-6</v>
       </c>
       <c r="F14">
         <f t="shared" si="0"/>
         <v>5.59321608040201</v>
       </c>
-      <c r="G14" s="3">
+      <c r="G14" s="4">
         <f t="shared" si="1"/>
         <v>0.00489343613716505</v>
       </c>
-      <c r="H14" s="3">
+      <c r="H14" s="4">
         <f t="shared" si="2"/>
         <v>0.178662076470941</v>
       </c>
-      <c r="I14" s="3">
+      <c r="I14" s="4">
         <f t="shared" si="3"/>
         <v>0.0125052807265709</v>
       </c>
-      <c r="J14" s="3">
+      <c r="J14" s="4">
         <f t="shared" si="4"/>
         <v>0.0556505526506305</v>
       </c>
@@ -1537,26 +1541,26 @@
       <c r="D15">
         <v>7.51748144977349</v>
       </c>
-      <c r="E15" s="4">
+      <c r="E15" s="5">
         <v>5.43196828285734e-6</v>
       </c>
       <c r="F15">
         <f t="shared" si="0"/>
         <v>5.63015075376884</v>
       </c>
-      <c r="G15" s="3">
+      <c r="G15" s="4">
         <f t="shared" si="1"/>
         <v>0.00522763199410255</v>
       </c>
-      <c r="H15" s="3">
+      <c r="H15" s="4">
         <f t="shared" si="2"/>
         <v>0.162844160786963</v>
       </c>
-      <c r="I15" s="3">
+      <c r="I15" s="4">
         <f t="shared" si="3"/>
         <v>0.0145126714143726</v>
       </c>
-      <c r="J15" s="3">
+      <c r="J15" s="4">
         <f t="shared" si="4"/>
         <v>0.0701632240650031</v>
       </c>
@@ -1574,26 +1578,26 @@
       <c r="D16">
         <v>6.56329699863908</v>
       </c>
-      <c r="E16" s="4">
+      <c r="E16" s="5">
         <v>4.4228100084129e-6</v>
       </c>
       <c r="F16">
         <f t="shared" si="0"/>
         <v>5.66708542713567</v>
       </c>
-      <c r="G16" s="3">
+      <c r="G16" s="4">
         <f t="shared" si="1"/>
         <v>0.0054986922709309</v>
       </c>
-      <c r="H16" s="3">
+      <c r="H16" s="4">
         <f t="shared" si="2"/>
         <v>0.149286939846238</v>
       </c>
-      <c r="I16" s="3">
+      <c r="I16" s="4">
         <f t="shared" si="3"/>
         <v>0.0165892036151102</v>
       </c>
-      <c r="J16" s="3">
+      <c r="J16" s="4">
         <f t="shared" si="4"/>
         <v>0.0867524276801133</v>
       </c>
@@ -1611,26 +1615,26 @@
       <c r="D17">
         <v>5.79933770723285</v>
       </c>
-      <c r="E17" s="4">
+      <c r="E17" s="5">
         <v>3.66116153749209e-6</v>
       </c>
       <c r="F17">
         <f t="shared" si="0"/>
         <v>5.70402010050251</v>
       </c>
-      <c r="G17" s="3">
+      <c r="G17" s="4">
         <f t="shared" si="1"/>
         <v>0.00571878935993028</v>
       </c>
-      <c r="H17" s="3">
+      <c r="H17" s="4">
         <f t="shared" si="2"/>
         <v>0.137546037356752</v>
       </c>
-      <c r="I17" s="3">
+      <c r="I17" s="4">
         <f t="shared" si="3"/>
         <v>0.0187178754602025</v>
       </c>
-      <c r="J17" s="3">
+      <c r="J17" s="4">
         <f t="shared" si="4"/>
         <v>0.105470303140316</v>
       </c>
@@ -1648,26 +1652,26 @@
       <c r="D18">
         <v>5.17816024353617</v>
       </c>
-      <c r="E18" s="4">
+      <c r="E18" s="5">
         <v>3.07481180255975e-6</v>
       </c>
       <c r="F18">
         <f t="shared" si="0"/>
         <v>5.74095477386934</v>
       </c>
-      <c r="G18" s="3">
+      <c r="G18" s="4">
         <f t="shared" si="1"/>
         <v>0.00589718886287245</v>
       </c>
-      <c r="H18" s="3">
+      <c r="H18" s="4">
         <f t="shared" si="2"/>
         <v>0.127285543513743</v>
       </c>
-      <c r="I18" s="3">
+      <c r="I18" s="4">
         <f t="shared" si="3"/>
         <v>0.0208828280141001</v>
       </c>
-      <c r="J18" s="3">
+      <c r="J18" s="4">
         <f t="shared" si="4"/>
         <v>0.126353131154416</v>
       </c>
@@ -1685,26 +1689,26 @@
       <c r="D19">
         <v>4.6662162066546</v>
       </c>
-      <c r="E19" s="4">
+      <c r="E19" s="5">
         <v>2.61549215573283e-6</v>
       </c>
       <c r="F19">
         <f t="shared" si="0"/>
         <v>5.77788944723618</v>
       </c>
-      <c r="G19" s="3">
+      <c r="G19" s="4">
         <f t="shared" si="1"/>
         <v>0.00604147012380757</v>
       </c>
-      <c r="H19" s="3">
+      <c r="H19" s="4">
         <f t="shared" si="2"/>
         <v>0.118245402748739</v>
       </c>
-      <c r="I19" s="3">
+      <c r="I19" s="4">
         <f t="shared" si="3"/>
         <v>0.0230691475151856</v>
       </c>
-      <c r="J19" s="3">
+      <c r="J19" s="4">
         <f t="shared" si="4"/>
         <v>0.149422278669601</v>
       </c>
@@ -1722,26 +1726,26 @@
       <c r="D20">
         <v>4.23923554528415</v>
       </c>
-      <c r="E20" s="4">
+      <c r="E20" s="5">
         <v>2.25009120192633e-6</v>
       </c>
       <c r="F20">
         <f t="shared" si="0"/>
         <v>5.81482412060301</v>
       </c>
-      <c r="G20" s="3">
+      <c r="G20" s="4">
         <f t="shared" si="1"/>
         <v>0.0061570170013723</v>
       </c>
-      <c r="H20" s="3">
+      <c r="H20" s="4">
         <f t="shared" si="2"/>
         <v>0.110225020470195</v>
       </c>
-      <c r="I20" s="3">
+      <c r="I20" s="4">
         <f t="shared" si="3"/>
         <v>0.0252634576493172</v>
       </c>
-      <c r="J20" s="3">
+      <c r="J20" s="4">
         <f t="shared" si="4"/>
         <v>0.174685736318919</v>
       </c>
@@ -1759,26 +1763,26 @@
       <c r="D21">
         <v>3.87933318374304</v>
       </c>
-      <c r="E21" s="4">
+      <c r="E21" s="5">
         <v>1.95538617985655e-6</v>
       </c>
       <c r="F21">
         <f t="shared" si="0"/>
         <v>5.85175879396984</v>
       </c>
-      <c r="G21" s="3">
+      <c r="G21" s="4">
         <f t="shared" si="1"/>
         <v>0.00624869518423703</v>
       </c>
-      <c r="H21" s="3">
+      <c r="H21" s="4">
         <f t="shared" si="2"/>
         <v>0.103062849386723</v>
       </c>
-      <c r="I21" s="3">
+      <c r="I21" s="4">
         <f t="shared" si="3"/>
         <v>0.0274531687809267</v>
       </c>
-      <c r="J21" s="3">
+      <c r="J21" s="4">
         <f t="shared" si="4"/>
         <v>0.202138905099845</v>
       </c>
@@ -1796,26 +1800,26 @@
       <c r="D22">
         <v>3.57309687731122</v>
       </c>
-      <c r="E22" s="4">
+      <c r="E22" s="5">
         <v>1.71475579494172e-6</v>
       </c>
       <c r="F22">
         <f t="shared" si="0"/>
         <v>5.88869346733668</v>
       </c>
-      <c r="G22" s="3">
+      <c r="G22" s="4">
         <f t="shared" si="1"/>
         <v>0.00631999720282867</v>
       </c>
-      <c r="H22" s="3">
+      <c r="H22" s="4">
         <f t="shared" si="2"/>
         <v>0.0966313323413119</v>
       </c>
-      <c r="I22" s="3">
+      <c r="I22" s="4">
         <f t="shared" si="3"/>
         <v>0.0296272161274711</v>
       </c>
-      <c r="J22" s="3">
+      <c r="J22" s="4">
         <f t="shared" si="4"/>
         <v>0.231766121227316</v>
       </c>
@@ -1833,26 +1837,26 @@
       <c r="D23">
         <v>3.31030981740032</v>
       </c>
-      <c r="E23" s="4">
+      <c r="E23" s="5">
         <v>1.51608738784033e-6</v>
       </c>
       <c r="F23">
         <f t="shared" si="0"/>
         <v>5.92562814070351</v>
       </c>
-      <c r="G23" s="3">
+      <c r="G23" s="4">
         <f t="shared" si="1"/>
         <v>0.00637399765928783</v>
       </c>
-      <c r="H23" s="3">
+      <c r="H23" s="4">
         <f t="shared" si="2"/>
         <v>0.0908258413680027</v>
       </c>
-      <c r="I23" s="3">
+      <c r="I23" s="4">
         <f t="shared" si="3"/>
         <v>0.031775428621121</v>
       </c>
-      <c r="J23" s="3">
+      <c r="J23" s="4">
         <f t="shared" si="4"/>
         <v>0.263541549848437</v>
       </c>
@@ -1870,26 +1874,26 @@
       <c r="D24">
         <v>3.0830856535937</v>
       </c>
-      <c r="E24" s="4">
+      <c r="E24" s="5">
         <v>1.35041027702425e-6</v>
       </c>
       <c r="F24">
         <f t="shared" si="0"/>
         <v>5.96256281407035</v>
       </c>
-      <c r="G24" s="3">
+      <c r="G24" s="4">
         <f t="shared" si="1"/>
         <v>0.00641325973139683</v>
       </c>
-      <c r="H24" s="3">
+      <c r="H24" s="4">
         <f t="shared" si="2"/>
         <v>0.0855606892540904</v>
       </c>
-      <c r="I24" s="3">
+      <c r="I24" s="4">
         <f t="shared" si="3"/>
         <v>0.0338887064683437</v>
       </c>
-      <c r="J24" s="3">
+      <c r="J24" s="4">
         <f t="shared" si="4"/>
         <v>0.297430256316781</v>
       </c>
@@ -1907,26 +1911,26 @@
       <c r="D25">
         <v>2.88525484985172</v>
       </c>
-      <c r="E25" s="4">
+      <c r="E25" s="5">
         <v>1.21097993831642e-6</v>
       </c>
       <c r="F25">
         <f t="shared" si="0"/>
         <v>5.99949748743718</v>
       </c>
-      <c r="G25" s="3">
+      <c r="G25" s="4">
         <f t="shared" si="1"/>
         <v>0.00643969743565369</v>
       </c>
-      <c r="H25" s="3">
+      <c r="H25" s="4">
         <f t="shared" si="2"/>
         <v>0.0807657539123998</v>
       </c>
-      <c r="I25" s="3">
+      <c r="I25" s="4">
         <f t="shared" si="3"/>
         <v>0.0359591683339318</v>
       </c>
-      <c r="J25" s="3">
+      <c r="J25" s="4">
         <f t="shared" si="4"/>
         <v>0.333389424650713</v>
       </c>
@@ -1944,26 +1948,26 @@
       <c r="D26">
         <v>2.71193667982868</v>
       </c>
-      <c r="E26" s="4">
+      <c r="E26" s="5">
         <v>1.09265803147893e-6</v>
       </c>
       <c r="F26">
         <f t="shared" si="0"/>
         <v>6.03643216080401</v>
       </c>
-      <c r="G26" s="3">
+      <c r="G26" s="4">
         <f t="shared" si="1"/>
         <v>0.00645522878448203</v>
       </c>
-      <c r="H26" s="3">
+      <c r="H26" s="4">
         <f t="shared" si="2"/>
         <v>0.0763814079767749</v>
       </c>
-      <c r="I26" s="3">
+      <c r="I26" s="4">
         <f t="shared" si="3"/>
         <v>0.0379795644906639</v>
       </c>
-      <c r="J26" s="3">
+      <c r="J26" s="4">
         <f t="shared" si="4"/>
         <v>0.371368989141377</v>
       </c>
@@ -1981,26 +1985,26 @@
       <c r="D27">
         <v>2.55922928556433</v>
       </c>
-      <c r="E27" s="4">
+      <c r="E27" s="5">
         <v>9.91480725087067e-7</v>
       </c>
       <c r="F27">
         <f t="shared" si="0"/>
         <v>6.07336683417085</v>
       </c>
-      <c r="G27" s="3">
+      <c r="G27" s="4">
         <f t="shared" si="1"/>
         <v>0.00646109464064148</v>
       </c>
-      <c r="H27" s="3">
+      <c r="H27" s="4">
         <f t="shared" si="2"/>
         <v>0.0723587828292204</v>
       </c>
-      <c r="I27" s="3">
+      <c r="I27" s="4">
         <f t="shared" si="3"/>
         <v>0.039943937760629</v>
       </c>
-      <c r="J27" s="3">
+      <c r="J27" s="4">
         <f t="shared" si="4"/>
         <v>0.411312926902006</v>
       </c>
@@ -2018,26 +2022,26 @@
       <c r="D28">
         <v>2.42398325808833</v>
       </c>
-      <c r="E28" s="4">
+      <c r="E28" s="5">
         <v>9.04356359996791e-7</v>
       </c>
       <c r="F28">
         <f t="shared" si="0"/>
         <v>6.11030150753768</v>
       </c>
-      <c r="G28" s="3">
+      <c r="G28" s="4">
         <f t="shared" si="1"/>
         <v>0.00645881709590619</v>
       </c>
-      <c r="H28" s="3">
+      <c r="H28" s="4">
         <f t="shared" si="2"/>
         <v>0.0686550464063068</v>
       </c>
-      <c r="I28" s="3">
+      <c r="I28" s="4">
         <f t="shared" si="3"/>
         <v>0.0418466635224879</v>
       </c>
-      <c r="J28" s="3">
+      <c r="J28" s="4">
         <f t="shared" si="4"/>
         <v>0.453159590424494</v>
       </c>
@@ -2055,26 +2059,26 @@
       <c r="D29">
         <v>2.30363269965023</v>
       </c>
-      <c r="E29" s="4">
+      <c r="E29" s="5">
         <v>8.28847050932207e-7</v>
       </c>
       <c r="F29">
         <f t="shared" si="0"/>
         <v>6.14723618090451</v>
       </c>
-      <c r="G29" s="3">
+      <c r="G29" s="4">
         <f t="shared" si="1"/>
         <v>0.00644908008596776</v>
       </c>
-      <c r="H29" s="3">
+      <c r="H29" s="4">
         <f t="shared" si="2"/>
         <v>0.0652360619278699</v>
       </c>
-      <c r="I29" s="3">
+      <c r="I29" s="4">
         <f t="shared" si="3"/>
         <v>0.0436838961155536</v>
       </c>
-      <c r="J29" s="3">
+      <c r="J29" s="4">
         <f t="shared" si="4"/>
         <v>0.496843486540047</v>
       </c>
@@ -2092,26 +2096,26 @@
       <c r="D30">
         <v>2.19607173408668</v>
       </c>
-      <c r="E30" s="4">
+      <c r="E30" s="5">
         <v>7.63013275397355e-7</v>
       </c>
       <c r="F30">
         <f t="shared" si="0"/>
         <v>6.18417085427135</v>
       </c>
-      <c r="G30" s="3">
+      <c r="G30" s="4">
         <f t="shared" si="1"/>
         <v>0.00643312201901586</v>
       </c>
-      <c r="H30" s="3">
+      <c r="H30" s="4">
         <f t="shared" si="2"/>
         <v>0.0620684897041947</v>
       </c>
-      <c r="I30" s="3">
+      <c r="I30" s="4">
         <f t="shared" si="3"/>
         <v>0.0454503865839152</v>
       </c>
-      <c r="J30" s="3">
+      <c r="J30" s="4">
         <f t="shared" si="4"/>
         <v>0.542293873123962</v>
       </c>
@@ -2129,26 +2133,26 @@
       <c r="D31">
         <v>2.0995591322791</v>
       </c>
-      <c r="E31" s="4">
+      <c r="E31" s="5">
         <v>7.05297872500091e-7</v>
       </c>
       <c r="F31">
         <f t="shared" si="0"/>
         <v>6.22110552763818</v>
       </c>
-      <c r="G31" s="3">
+      <c r="G31" s="4">
         <f t="shared" si="1"/>
         <v>0.00641163077999999</v>
       </c>
-      <c r="H31" s="3">
+      <c r="H31" s="4">
         <f t="shared" si="2"/>
         <v>0.0591287978866279</v>
       </c>
-      <c r="I31" s="3">
+      <c r="I31" s="4">
         <f t="shared" si="3"/>
         <v>0.0471447060455453</v>
       </c>
-      <c r="J31" s="3">
+      <c r="J31" s="4">
         <f t="shared" si="4"/>
         <v>0.589438579169508</v>
       </c>
@@ -2166,26 +2170,26 @@
       <c r="D32">
         <v>2.01264167482368</v>
       </c>
-      <c r="E32" s="4">
+      <c r="E32" s="5">
         <v>6.54439281506087e-7</v>
       </c>
       <c r="F32">
         <f t="shared" si="0"/>
         <v>6.25804020100502</v>
       </c>
-      <c r="G32" s="3">
+      <c r="G32" s="4">
         <f t="shared" si="1"/>
         <v>0.00638520936218468</v>
       </c>
-      <c r="H32" s="3">
+      <c r="H32" s="4">
         <f t="shared" si="2"/>
         <v>0.056392519889903</v>
       </c>
-      <c r="I32" s="3">
+      <c r="I32" s="4">
         <f t="shared" si="3"/>
         <v>0.048763221465439</v>
       </c>
-      <c r="J32" s="3">
+      <c r="J32" s="4">
         <f t="shared" si="4"/>
         <v>0.638201800634947</v>
       </c>
@@ -2203,26 +2207,26 @@
       <c r="D33">
         <v>1.93410281788648</v>
       </c>
-      <c r="E33" s="4">
+      <c r="E33" s="5">
         <v>6.09408789206123e-7</v>
       </c>
       <c r="F33">
         <f t="shared" si="0"/>
         <v>6.29497487437185</v>
       </c>
-      <c r="G33" s="3">
+      <c r="G33" s="4">
         <f t="shared" si="1"/>
         <v>0.00635459721156363</v>
       </c>
-      <c r="H33" s="3">
+      <c r="H33" s="4">
         <f t="shared" si="2"/>
         <v>0.0538399056329976</v>
       </c>
-      <c r="I33" s="3">
+      <c r="I33" s="4">
         <f t="shared" si="3"/>
         <v>0.050304138161506</v>
       </c>
-      <c r="J33" s="3">
+      <c r="J33" s="4">
         <f t="shared" si="4"/>
         <v>0.688505938796453</v>
       </c>
@@ -2240,26 +2244,26 @@
       <c r="D34">
         <v>1.86291386483802</v>
       </c>
-      <c r="E34" s="4">
+      <c r="E34" s="5">
         <v>5.69360546237698e-7</v>
       </c>
       <c r="F34">
         <f t="shared" si="0"/>
         <v>6.33190954773868</v>
       </c>
-      <c r="G34" s="3">
+      <c r="G34" s="4">
         <f t="shared" si="1"/>
         <v>0.0063201367906315</v>
       </c>
-      <c r="H34" s="3">
+      <c r="H34" s="4">
         <f t="shared" si="2"/>
         <v>0.0514538892521053</v>
       </c>
-      <c r="I34" s="3">
+      <c r="I34" s="4">
         <f t="shared" si="3"/>
         <v>0.0517661127628938</v>
       </c>
-      <c r="J34" s="3">
+      <c r="J34" s="4">
         <f t="shared" si="4"/>
         <v>0.740272051559346</v>
       </c>
@@ -2277,26 +2281,26 @@
       <c r="D35">
         <v>1.79820281638969</v>
       </c>
-      <c r="E35" s="4">
+      <c r="E35" s="5">
         <v>5.33594867250937e-7</v>
       </c>
       <c r="F35">
         <f t="shared" si="0"/>
         <v>6.36884422110552</v>
       </c>
-      <c r="G35" s="3">
+      <c r="G35" s="4">
         <f t="shared" si="1"/>
         <v>0.00628236393706445</v>
       </c>
-      <c r="H35" s="3">
+      <c r="H35" s="4">
         <f t="shared" si="2"/>
         <v>0.0492189621296628</v>
       </c>
-      <c r="I35" s="3">
+      <c r="I35" s="4">
         <f t="shared" si="3"/>
         <v>0.0531480278319033</v>
       </c>
-      <c r="J35" s="3">
+      <c r="J35" s="4">
         <f t="shared" si="4"/>
         <v>0.79342007939125</v>
       </c>
@@ -2314,26 +2318,26 @@
       <c r="D36">
         <v>1.73922554114588</v>
       </c>
-      <c r="E36" s="4">
+      <c r="E36" s="5">
         <v>5.01529293609003e-7</v>
       </c>
       <c r="F36">
         <f t="shared" ref="F36:F67" si="5">F35+0.0369346733668338</f>
         <v>6.40577889447235</v>
       </c>
-      <c r="G36" s="3">
+      <c r="G36" s="4">
         <f t="shared" ref="G36:G67" si="6">5/2*(1/C36+1/C35)*(C36-C35)</f>
         <v>0.00624175679763294</v>
       </c>
-      <c r="H36" s="3">
+      <c r="H36" s="4">
         <f t="shared" ref="H36:H67" si="7">(1/B36+1/B35)*(B36-B35)</f>
         <v>0.0471215061550745</v>
       </c>
-      <c r="I36" s="3">
+      <c r="I36" s="4">
         <f t="shared" ref="I36:I67" si="8">83140000/2.4942*(G36+H36)/((E35+E36)*31560000000000)</f>
         <v>0.0544492224477658</v>
       </c>
-      <c r="J36" s="3">
+      <c r="J36" s="4">
         <f t="shared" ref="J36:J67" si="9">J35+I36</f>
         <v>0.847869301839016</v>
       </c>
@@ -2351,26 +2355,26 @@
       <c r="D37">
         <v>1.68534295217441</v>
       </c>
-      <c r="E37" s="4">
+      <c r="E37" s="5">
         <v>4.72675691444514e-7</v>
       </c>
       <c r="F37">
         <f t="shared" si="5"/>
         <v>6.44271356783919</v>
       </c>
-      <c r="G37" s="3">
+      <c r="G37" s="4">
         <f t="shared" si="6"/>
         <v>0.00619838951058494</v>
       </c>
-      <c r="H37" s="3">
+      <c r="H37" s="4">
         <f t="shared" si="7"/>
         <v>0.0451500705827</v>
       </c>
-      <c r="I37" s="3">
+      <c r="I37" s="4">
         <f t="shared" si="8"/>
         <v>0.0556696931018395</v>
       </c>
-      <c r="J37" s="3">
+      <c r="J37" s="4">
         <f t="shared" si="9"/>
         <v>0.903538994940855</v>
       </c>
@@ -2388,26 +2392,26 @@
       <c r="D38">
         <v>1.63600775173311</v>
       </c>
-      <c r="E38" s="4">
+      <c r="E38" s="5">
         <v>4.46624146029134e-7</v>
       </c>
       <c r="F38">
         <f t="shared" si="5"/>
         <v>6.47964824120602</v>
       </c>
-      <c r="G38" s="3">
+      <c r="G38" s="4">
         <f t="shared" si="6"/>
         <v>0.00615339476397489</v>
       </c>
-      <c r="H38" s="3">
+      <c r="H38" s="4">
         <f t="shared" si="7"/>
         <v>0.043292926060535</v>
       </c>
-      <c r="I38" s="3">
+      <c r="I38" s="4">
         <f t="shared" si="8"/>
         <v>0.0568091838193783</v>
       </c>
-      <c r="J38" s="3">
+      <c r="J38" s="4">
         <f t="shared" si="9"/>
         <v>0.960348178760233</v>
       </c>
@@ -2425,26 +2429,26 @@
       <c r="D39">
         <v>1.59073861806748</v>
       </c>
-      <c r="E39" s="4">
+      <c r="E39" s="5">
         <v>4.23024915086443e-7</v>
       </c>
       <c r="F39">
         <f t="shared" si="5"/>
         <v>6.51658291457285</v>
       </c>
-      <c r="G39" s="3">
+      <c r="G39" s="4">
         <f t="shared" si="6"/>
         <v>0.00610554786994202</v>
       </c>
-      <c r="H39" s="3">
+      <c r="H39" s="4">
         <f t="shared" si="7"/>
         <v>0.0415418668774062</v>
       </c>
-      <c r="I39" s="3">
+      <c r="I39" s="4">
         <f t="shared" si="8"/>
         <v>0.0578678117501346</v>
       </c>
-      <c r="J39" s="3">
+      <c r="J39" s="4">
         <f t="shared" si="9"/>
         <v>1.01821599051037</v>
       </c>
@@ -2462,26 +2466,26 @@
       <c r="D40">
         <v>1.54912551512119</v>
       </c>
-      <c r="E40" s="4">
+      <c r="E40" s="5">
         <v>4.01583230090035e-7</v>
       </c>
       <c r="F40">
         <f t="shared" si="5"/>
         <v>6.55351758793969</v>
       </c>
-      <c r="G40" s="3">
+      <c r="G40" s="4">
         <f t="shared" si="6"/>
         <v>0.00605643782352289</v>
       </c>
-      <c r="H40" s="3">
+      <c r="H40" s="4">
         <f t="shared" si="7"/>
         <v>0.0398882514286651</v>
       </c>
-      <c r="I40" s="3">
+      <c r="I40" s="4">
         <f t="shared" si="8"/>
         <v>0.0588476939561298</v>
       </c>
-      <c r="J40" s="3">
+      <c r="J40" s="4">
         <f t="shared" si="9"/>
         <v>1.0770636844665</v>
       </c>
@@ -2499,26 +2503,26 @@
       <c r="D41">
         <v>1.5108082884617</v>
       </c>
-      <c r="E41" s="4">
+      <c r="E41" s="5">
         <v>3.82046429274303e-7</v>
       </c>
       <c r="F41">
         <f t="shared" si="5"/>
         <v>6.59045226130652</v>
       </c>
-      <c r="G41" s="3">
+      <c r="G41" s="4">
         <f t="shared" si="6"/>
         <v>0.00600623456845041</v>
       </c>
-      <c r="H41" s="3">
+      <c r="H41" s="4">
         <f t="shared" si="7"/>
         <v>0.0383231210204971</v>
       </c>
-      <c r="I41" s="3">
+      <c r="I41" s="4">
         <f t="shared" si="8"/>
         <v>0.0597478529818519</v>
       </c>
-      <c r="J41" s="3">
+      <c r="J41" s="4">
         <f t="shared" si="9"/>
         <v>1.13681153744835</v>
       </c>
@@ -2536,26 +2540,26 @@
       <c r="D42">
         <v>1.47546623936291</v>
       </c>
-      <c r="E42" s="4">
+      <c r="E42" s="5">
         <v>3.64195781650487e-7</v>
       </c>
       <c r="F42">
         <f t="shared" si="5"/>
         <v>6.62738693467336</v>
       </c>
-      <c r="G42" s="3">
+      <c r="G42" s="4">
         <f t="shared" si="6"/>
         <v>0.00595382139170614</v>
       </c>
-      <c r="H42" s="3">
+      <c r="H42" s="4">
         <f t="shared" si="7"/>
         <v>0.0368422370413461</v>
       </c>
-      <c r="I42" s="3">
+      <c r="I42" s="4">
         <f t="shared" si="8"/>
         <v>0.060571134969006</v>
       </c>
-      <c r="J42" s="3">
+      <c r="J42" s="4">
         <f t="shared" si="9"/>
         <v>1.19738267241736</v>
       </c>
@@ -2573,26 +2577,26 @@
       <c r="D43">
         <v>1.44282543021052</v>
       </c>
-      <c r="E43" s="4">
+      <c r="E43" s="5">
         <v>3.47845243971737e-7</v>
       </c>
       <c r="F43">
         <f t="shared" si="5"/>
         <v>6.66432160804019</v>
       </c>
-      <c r="G43" s="3">
+      <c r="G43" s="4">
         <f t="shared" si="6"/>
         <v>0.00590103052281157</v>
       </c>
-      <c r="H43" s="3">
+      <c r="H43" s="4">
         <f t="shared" si="7"/>
         <v>0.0354370782145373</v>
       </c>
-      <c r="I43" s="3">
+      <c r="I43" s="4">
         <f t="shared" si="8"/>
         <v>0.0613179090570338</v>
       </c>
-      <c r="J43" s="3">
+      <c r="J43" s="4">
         <f t="shared" si="9"/>
         <v>1.25870058147439</v>
       </c>
@@ -2610,26 +2614,26 @@
       <c r="D44">
         <v>1.41263793509204</v>
       </c>
-      <c r="E44" s="4">
+      <c r="E44" s="5">
         <v>3.32831899819176e-7</v>
       </c>
       <c r="F44">
         <f t="shared" si="5"/>
         <v>6.70125628140702</v>
       </c>
-      <c r="G44" s="3">
+      <c r="G44" s="4">
         <f t="shared" si="6"/>
         <v>0.00584715197046874</v>
       </c>
-      <c r="H44" s="3">
+      <c r="H44" s="4">
         <f t="shared" si="7"/>
         <v>0.034102065565902</v>
       </c>
-      <c r="I44" s="3">
+      <c r="I44" s="4">
         <f t="shared" si="8"/>
         <v>0.0619881764158331</v>
       </c>
-      <c r="J44" s="3">
+      <c r="J44" s="4">
         <f t="shared" si="9"/>
         <v>1.32068875789022</v>
       </c>
@@ -2647,26 +2651,26 @@
       <c r="D45">
         <v>1.38468743831781</v>
       </c>
-      <c r="E45" s="4">
+      <c r="E45" s="5">
         <v>3.19014937795475e-7</v>
       </c>
       <c r="F45">
         <f t="shared" si="5"/>
         <v>6.73819095477386</v>
       </c>
-      <c r="G45" s="3">
+      <c r="G45" s="4">
         <f t="shared" si="6"/>
         <v>0.005792276964998</v>
       </c>
-      <c r="H45" s="3">
+      <c r="H45" s="4">
         <f t="shared" si="7"/>
         <v>0.0328344229833125</v>
       </c>
-      <c r="I45" s="3">
+      <c r="I45" s="4">
         <f t="shared" si="8"/>
         <v>0.0625869508489149</v>
       </c>
-      <c r="J45" s="3">
+      <c r="J45" s="4">
         <f t="shared" si="9"/>
         <v>1.38327570873914</v>
       </c>
@@ -2684,26 +2688,26 @@
       <c r="D46">
         <v>1.35877896254691</v>
       </c>
-      <c r="E46" s="4">
+      <c r="E46" s="5">
         <v>3.01567755508422e-7</v>
       </c>
       <c r="F46">
         <f t="shared" si="5"/>
         <v>6.77512562814069</v>
       </c>
-      <c r="G46" s="3">
+      <c r="G46" s="4">
         <f t="shared" si="6"/>
         <v>0.00573658249318732</v>
       </c>
-      <c r="H46" s="3">
+      <c r="H46" s="4">
         <f t="shared" si="7"/>
         <v>0.0316278075082376</v>
       </c>
-      <c r="I46" s="3">
+      <c r="I46" s="4">
         <f t="shared" si="8"/>
         <v>0.0635916344307127</v>
       </c>
-      <c r="J46" s="3">
+      <c r="J46" s="4">
         <f t="shared" si="9"/>
         <v>1.44686734316985</v>
       </c>
@@ -2721,26 +2725,26 @@
       <c r="D47">
         <v>1.33474364940628</v>
       </c>
-      <c r="E47" s="4">
+      <c r="E47" s="5">
         <v>2.94492813070142e-7</v>
       </c>
       <c r="F47">
         <f t="shared" si="5"/>
         <v>6.81206030150752</v>
       </c>
-      <c r="G47" s="3">
+      <c r="G47" s="4">
         <f t="shared" si="6"/>
         <v>0.0056806338736318</v>
       </c>
-      <c r="H47" s="3">
+      <c r="H47" s="4">
         <f t="shared" si="7"/>
         <v>0.0304781851881662</v>
       </c>
-      <c r="I47" s="3">
+      <c r="I47" s="4">
         <f t="shared" si="8"/>
         <v>0.0640716039446946</v>
       </c>
-      <c r="J47" s="3">
+      <c r="J47" s="4">
         <f t="shared" si="9"/>
         <v>1.51093894711455</v>
       </c>
@@ -2758,26 +2762,26 @@
       <c r="D48">
         <v>1.31242705957908</v>
       </c>
-      <c r="E48" s="4">
+      <c r="E48" s="5">
         <v>2.83586016290601e-7</v>
       </c>
       <c r="F48">
         <f t="shared" si="5"/>
         <v>6.84899497487436</v>
       </c>
-      <c r="G48" s="3">
+      <c r="G48" s="4">
         <f t="shared" si="6"/>
         <v>0.005624097923786</v>
       </c>
-      <c r="H48" s="3">
+      <c r="H48" s="4">
         <f t="shared" si="7"/>
         <v>0.0293820875458872</v>
       </c>
-      <c r="I48" s="3">
+      <c r="I48" s="4">
         <f t="shared" si="8"/>
         <v>0.0639586775503873</v>
       </c>
-      <c r="J48" s="3">
+      <c r="J48" s="4">
         <f t="shared" si="9"/>
         <v>1.57489762466493</v>
       </c>
@@ -2795,26 +2799,26 @@
       <c r="D49">
         <v>1.2916916619461</v>
       </c>
-      <c r="E49" s="4">
+      <c r="E49" s="5">
         <v>2.73467044800293e-7</v>
       </c>
       <c r="F49">
         <f t="shared" si="5"/>
         <v>6.88592964824119</v>
       </c>
-      <c r="G49" s="3">
+      <c r="G49" s="4">
         <f t="shared" si="6"/>
         <v>0.00556711774515459</v>
       </c>
-      <c r="H49" s="3">
+      <c r="H49" s="4">
         <f t="shared" si="7"/>
         <v>0.0283360376508324</v>
       </c>
-      <c r="I49" s="3">
+      <c r="I49" s="4">
         <f t="shared" si="8"/>
         <v>0.0642813969073686</v>
       </c>
-      <c r="J49" s="3">
+      <c r="J49" s="4">
         <f t="shared" si="9"/>
         <v>1.6391790215723</v>
       </c>
@@ -2832,26 +2836,26 @@
       <c r="D50">
         <v>1.27241468473824</v>
       </c>
-      <c r="E50" s="4">
+      <c r="E50" s="5">
         <v>2.64062563157988e-7</v>
       </c>
       <c r="F50">
         <f t="shared" si="5"/>
         <v>6.92286432160803</v>
       </c>
-      <c r="G50" s="3">
+      <c r="G50" s="4">
         <f t="shared" si="6"/>
         <v>0.00550993772326156</v>
       </c>
-      <c r="H50" s="3">
+      <c r="H50" s="4">
         <f t="shared" si="7"/>
         <v>0.0273366461706832</v>
       </c>
-      <c r="I50" s="3">
+      <c r="I50" s="4">
         <f t="shared" si="8"/>
         <v>0.0645400902988569</v>
       </c>
-      <c r="J50" s="3">
+      <c r="J50" s="4">
         <f t="shared" si="9"/>
         <v>1.70371911187116</v>
       </c>
@@ -2869,26 +2873,26 @@
       <c r="D51">
         <v>1.25448490852406</v>
       </c>
-      <c r="E51" s="4">
+      <c r="E51" s="5">
         <v>2.55307255355572e-7</v>
       </c>
       <c r="F51">
         <f t="shared" si="5"/>
         <v>6.95979899497486</v>
       </c>
-      <c r="G51" s="3">
+      <c r="G51" s="4">
         <f t="shared" si="6"/>
         <v>0.00545245892055323</v>
       </c>
-      <c r="H51" s="3">
+      <c r="H51" s="4">
         <f t="shared" si="7"/>
         <v>0.0263812311453788</v>
       </c>
-      <c r="I51" s="3">
+      <c r="I51" s="4">
         <f t="shared" si="8"/>
         <v>0.064736918945853</v>
       </c>
-      <c r="J51" s="3">
+      <c r="J51" s="4">
         <f t="shared" si="9"/>
         <v>1.76845603081701</v>
       </c>
@@ -2906,26 +2910,26 @@
       <c r="D52">
         <v>1.2378024825162</v>
       </c>
-      <c r="E52" s="4">
+      <c r="E52" s="5">
         <v>2.47143280055391e-7</v>
       </c>
       <c r="F52">
         <f t="shared" si="5"/>
         <v>6.99673366834169</v>
       </c>
-      <c r="G52" s="3">
+      <c r="G52" s="4">
         <f t="shared" si="6"/>
         <v>0.00539488220178476</v>
       </c>
-      <c r="H52" s="3">
+      <c r="H52" s="4">
         <f t="shared" si="7"/>
         <v>0.0254669255429592</v>
       </c>
-      <c r="I52" s="3">
+      <c r="I52" s="4">
         <f t="shared" si="8"/>
         <v>0.0648738689051062</v>
       </c>
-      <c r="J52" s="3">
+      <c r="J52" s="4">
         <f t="shared" si="9"/>
         <v>1.83332989972212</v>
       </c>
@@ -2943,26 +2947,26 @@
       <c r="D53">
         <v>1.22227641881154</v>
       </c>
-      <c r="E53" s="4">
+      <c r="E53" s="5">
         <v>2.39518886109324e-7</v>
       </c>
       <c r="F53">
         <f t="shared" si="5"/>
         <v>7.03366834170853</v>
       </c>
-      <c r="G53" s="3">
+      <c r="G53" s="4">
         <f t="shared" si="6"/>
         <v>0.00533702667617703</v>
       </c>
-      <c r="H53" s="3">
+      <c r="H53" s="4">
         <f t="shared" si="7"/>
         <v>0.0245915242512989</v>
       </c>
-      <c r="I53" s="3">
+      <c r="I53" s="4">
         <f t="shared" si="8"/>
         <v>0.0649530958589532</v>
       </c>
-      <c r="J53" s="3">
+      <c r="J53" s="4">
         <f t="shared" si="9"/>
         <v>1.89828299558107</v>
       </c>
@@ -2980,26 +2984,26 @@
       <c r="D54">
         <v>1.20782650874286</v>
       </c>
-      <c r="E54" s="4">
+      <c r="E54" s="5">
         <v>2.32388439373226e-7</v>
       </c>
       <c r="F54">
         <f t="shared" si="5"/>
         <v>7.07060301507536</v>
       </c>
-      <c r="G54" s="3">
+      <c r="G54" s="4">
         <f t="shared" si="6"/>
         <v>0.00527971456576891</v>
       </c>
-      <c r="H54" s="3">
+      <c r="H54" s="4">
         <f t="shared" si="7"/>
         <v>0.0237520077541746</v>
       </c>
-      <c r="I54" s="3">
+      <c r="I54" s="4">
         <f t="shared" si="8"/>
         <v>0.0649767272566813</v>
       </c>
-      <c r="J54" s="3">
+      <c r="J54" s="4">
         <f t="shared" si="9"/>
         <v>1.96325972283775</v>
       </c>
@@ -3017,26 +3021,26 @@
       <c r="D55">
         <v>1.19437668505233</v>
       </c>
-      <c r="E55" s="4">
+      <c r="E55" s="5">
         <v>2.25710246744238e-7</v>
       </c>
       <c r="F55">
         <f t="shared" si="5"/>
         <v>7.1075376884422</v>
       </c>
-      <c r="G55" s="3">
+      <c r="G55" s="4">
         <f t="shared" si="6"/>
         <v>0.00522186511084796</v>
       </c>
-      <c r="H55" s="3">
+      <c r="H55" s="4">
         <f t="shared" si="7"/>
         <v>0.0229470611416367</v>
       </c>
-      <c r="I55" s="3">
+      <c r="I55" s="4">
         <f t="shared" si="8"/>
         <v>0.0649460881073</v>
       </c>
-      <c r="J55" s="3">
+      <c r="J55" s="4">
         <f t="shared" si="9"/>
         <v>2.02820581094505</v>
       </c>
@@ -3054,26 +3058,26 @@
       <c r="D56">
         <v>1.18186117834965</v>
       </c>
-      <c r="E56" s="4">
+      <c r="E56" s="5">
         <v>2.19447726004986e-7</v>
       </c>
       <c r="F56">
         <f t="shared" si="5"/>
         <v>7.14447236180903</v>
       </c>
-      <c r="G56" s="3">
+      <c r="G56" s="4">
         <f t="shared" si="6"/>
         <v>0.00516462470733964</v>
       </c>
-      <c r="H56" s="3">
+      <c r="H56" s="4">
         <f t="shared" si="7"/>
         <v>0.0221748519938252</v>
       </c>
-      <c r="I56" s="3">
+      <c r="I56" s="4">
         <f t="shared" si="8"/>
         <v>0.0648661007612957</v>
       </c>
-      <c r="J56" s="3">
+      <c r="J56" s="4">
         <f t="shared" si="9"/>
         <v>2.09307191170635</v>
       </c>
@@ -3091,26 +3095,26 @@
       <c r="D57">
         <v>1.17021447854134</v>
       </c>
-      <c r="E57" s="4">
+      <c r="E57" s="5">
         <v>2.13566676813661e-7</v>
       </c>
       <c r="F57">
         <f t="shared" si="5"/>
         <v>7.18140703517586</v>
       </c>
-      <c r="G57" s="3">
+      <c r="G57" s="4">
         <f t="shared" si="6"/>
         <v>0.00510619456373707</v>
       </c>
-      <c r="H57" s="3">
+      <c r="H57" s="4">
         <f t="shared" si="7"/>
         <v>0.0214335315170972</v>
       </c>
-      <c r="I57" s="3">
+      <c r="I57" s="4">
         <f t="shared" si="8"/>
         <v>0.0647345070035053</v>
       </c>
-      <c r="J57" s="3">
+      <c r="J57" s="4">
         <f t="shared" si="9"/>
         <v>2.15780641870985</v>
       </c>
@@ -3128,26 +3132,26 @@
       <c r="D58">
         <v>1.15938459487737</v>
       </c>
-      <c r="E58" s="4">
+      <c r="E58" s="5">
         <v>2.08038084416954e-7</v>
       </c>
       <c r="F58">
         <f t="shared" si="5"/>
         <v>7.2183417085427</v>
       </c>
-      <c r="G58" s="3">
+      <c r="G58" s="4">
         <f t="shared" si="6"/>
         <v>0.00504937937499046</v>
       </c>
-      <c r="H58" s="3">
+      <c r="H58" s="4">
         <f t="shared" si="7"/>
         <v>0.0207201366229965</v>
       </c>
-      <c r="I58" s="3">
+      <c r="I58" s="4">
         <f t="shared" si="8"/>
         <v>0.0645568759422183</v>
       </c>
-      <c r="J58" s="3">
+      <c r="J58" s="4">
         <f t="shared" si="9"/>
         <v>2.22236329465207</v>
       </c>
@@ -3165,26 +3169,26 @@
       <c r="D59">
         <v>1.14932140525813</v>
       </c>
-      <c r="E59" s="4">
+      <c r="E59" s="5">
         <v>2.02835203796516e-7</v>
       </c>
       <c r="F59">
         <f t="shared" si="5"/>
         <v>7.25527638190953</v>
       </c>
-      <c r="G59" s="3">
+      <c r="G59" s="4">
         <f t="shared" si="6"/>
         <v>0.00499348834403701</v>
       </c>
-      <c r="H59" s="3">
+      <c r="H59" s="4">
         <f t="shared" si="7"/>
         <v>0.0200332628044395</v>
       </c>
-      <c r="I59" s="3">
+      <c r="I59" s="4">
         <f t="shared" si="8"/>
         <v>0.0643336687055444</v>
       </c>
-      <c r="J59" s="3">
+      <c r="J59" s="4">
         <f t="shared" si="9"/>
         <v>2.28669696335762</v>
       </c>
@@ -3202,26 +3206,26 @@
       <c r="D60">
         <v>1.13996865635936</v>
       </c>
-      <c r="E60" s="4">
+      <c r="E60" s="5">
         <v>1.97931314555914e-7</v>
       </c>
       <c r="F60">
         <f t="shared" si="5"/>
         <v>7.29221105527636</v>
       </c>
-      <c r="G60" s="3">
+      <c r="G60" s="4">
         <f t="shared" si="6"/>
         <v>0.00493392745678003</v>
       </c>
-      <c r="H60" s="3">
+      <c r="H60" s="4">
         <f t="shared" si="7"/>
         <v>0.0193758603444785</v>
       </c>
-      <c r="I60" s="3">
+      <c r="I60" s="4">
         <f t="shared" si="8"/>
         <v>0.0640665720174314</v>
       </c>
-      <c r="J60" s="3">
+      <c r="J60" s="4">
         <f t="shared" si="9"/>
         <v>2.35076353537505</v>
       </c>
@@ -3239,26 +3243,26 @@
       <c r="D61">
         <v>1.13129242546648</v>
       </c>
-      <c r="E61" s="4">
+      <c r="E61" s="5">
         <v>1.93306430335803e-7</v>
       </c>
       <c r="F61">
         <f t="shared" si="5"/>
         <v>7.3291457286432</v>
       </c>
-      <c r="G61" s="3">
+      <c r="G61" s="4">
         <f t="shared" si="6"/>
         <v>0.00487863298400797</v>
       </c>
-      <c r="H61" s="3">
+      <c r="H61" s="4">
         <f t="shared" si="7"/>
         <v>0.0187395977958367</v>
       </c>
-      <c r="I61" s="3">
+      <c r="I61" s="4">
         <f t="shared" si="8"/>
         <v>0.0637600084115237</v>
       </c>
-      <c r="J61" s="3">
+      <c r="J61" s="4">
         <f t="shared" si="9"/>
         <v>2.41452354378657</v>
       </c>
@@ -3276,26 +3280,26 @@
       <c r="D62">
         <v>1.12324998694938</v>
       </c>
-      <c r="E62" s="4">
+      <c r="E62" s="5">
         <v>1.88939599196901e-7</v>
       </c>
       <c r="F62">
         <f t="shared" si="5"/>
         <v>7.36608040201003</v>
       </c>
-      <c r="G62" s="3">
+      <c r="G62" s="4">
         <f t="shared" si="6"/>
         <v>0.00482221485636531</v>
       </c>
-      <c r="H62" s="3">
+      <c r="H62" s="4">
         <f t="shared" si="7"/>
         <v>0.018127726881211</v>
       </c>
-      <c r="I62" s="3">
+      <c r="I62" s="4">
         <f t="shared" si="8"/>
         <v>0.063413300119093</v>
       </c>
-      <c r="J62" s="3">
+      <c r="J62" s="4">
         <f t="shared" si="9"/>
         <v>2.47793684390566</v>
       </c>
@@ -3313,26 +3317,26 @@
       <c r="D63">
         <v>1.1158045215178</v>
       </c>
-      <c r="E63" s="4">
+      <c r="E63" s="5">
         <v>1.84812380262296e-7</v>
       </c>
       <c r="F63">
         <f t="shared" si="5"/>
         <v>7.40301507537687</v>
       </c>
-      <c r="G63" s="3">
+      <c r="G63" s="4">
         <f t="shared" si="6"/>
         <v>0.00476584737535191</v>
       </c>
-      <c r="H63" s="3">
+      <c r="H63" s="4">
         <f t="shared" si="7"/>
         <v>0.0175384311301299</v>
       </c>
-      <c r="I63" s="3">
+      <c r="I63" s="4">
         <f t="shared" si="8"/>
         <v>0.0630298725025461</v>
       </c>
-      <c r="J63" s="3">
+      <c r="J63" s="4">
         <f t="shared" si="9"/>
         <v>2.54096671640821</v>
       </c>
@@ -3350,26 +3354,26 @@
       <c r="D64">
         <v>1.10892198652063</v>
       </c>
-      <c r="E64" s="4">
+      <c r="E64" s="5">
         <v>1.80907979370055e-7</v>
       </c>
       <c r="F64">
         <f t="shared" si="5"/>
         <v>7.4399497487437</v>
       </c>
-      <c r="G64" s="3">
+      <c r="G64" s="4">
         <f t="shared" si="6"/>
         <v>0.00470999130043662</v>
       </c>
-      <c r="H64" s="3">
+      <c r="H64" s="4">
         <f t="shared" si="7"/>
         <v>0.0169694997211637</v>
       </c>
-      <c r="I64" s="3">
+      <c r="I64" s="4">
         <f t="shared" si="8"/>
         <v>0.0626097103260852</v>
       </c>
-      <c r="J64" s="3">
+      <c r="J64" s="4">
         <f t="shared" si="9"/>
         <v>2.60357642673429</v>
       </c>
@@ -3387,26 +3391,26 @@
       <c r="D65">
         <v>1.10257202716224</v>
       </c>
-      <c r="E65" s="4">
+      <c r="E65" s="5">
         <v>1.7721125547164e-7</v>
       </c>
       <c r="F65">
         <f t="shared" si="5"/>
         <v>7.47688442211053</v>
       </c>
-      <c r="G65" s="3">
+      <c r="G65" s="4">
         <f t="shared" si="6"/>
         <v>0.00465464124424852</v>
       </c>
-      <c r="H65" s="3">
+      <c r="H65" s="4">
         <f t="shared" si="7"/>
         <v>0.0164207245398485</v>
       </c>
-      <c r="I65" s="3">
+      <c r="I65" s="4">
         <f t="shared" si="8"/>
         <v>0.0621568824520671</v>
       </c>
-      <c r="J65" s="3">
+      <c r="J65" s="4">
         <f t="shared" si="9"/>
         <v>2.66573330918636</v>
       </c>
@@ -3424,26 +3428,26 @@
       <c r="D66">
         <v>1.09672553085644</v>
       </c>
-      <c r="E66" s="4">
+      <c r="E66" s="5">
         <v>1.73708139172722e-7</v>
       </c>
       <c r="F66">
         <f t="shared" si="5"/>
         <v>7.51381909547737</v>
       </c>
-      <c r="G66" s="3">
+      <c r="G66" s="4">
         <f t="shared" si="6"/>
         <v>0.00459952916933775</v>
       </c>
-      <c r="H66" s="3">
+      <c r="H66" s="4">
         <f t="shared" si="7"/>
         <v>0.0158910451937741</v>
       </c>
-      <c r="I66" s="3">
+      <c r="I66" s="4">
         <f t="shared" si="8"/>
         <v>0.0616720679753142</v>
       </c>
-      <c r="J66" s="3">
+      <c r="J66" s="4">
         <f t="shared" si="9"/>
         <v>2.72740537716168</v>
       </c>
@@ -3461,26 +3465,26 @@
       <c r="D67">
         <v>1.09135615622774</v>
       </c>
-      <c r="E67" s="4">
+      <c r="E67" s="5">
         <v>1.70385861245893e-7</v>
       </c>
       <c r="F67">
         <f t="shared" si="5"/>
         <v>7.5507537688442</v>
       </c>
-      <c r="G67" s="3">
+      <c r="G67" s="4">
         <f t="shared" si="6"/>
         <v>0.00454490488193347</v>
       </c>
-      <c r="H67" s="3">
+      <c r="H67" s="4">
         <f t="shared" si="7"/>
         <v>0.0153794808670016</v>
       </c>
-      <c r="I67" s="3">
+      <c r="I67" s="4">
         <f t="shared" si="8"/>
         <v>0.0611574813747755</v>
       </c>
-      <c r="J67" s="3">
+      <c r="J67" s="4">
         <f t="shared" si="9"/>
         <v>2.78856285853645</v>
       </c>
@@ -3498,26 +3502,26 @@
       <c r="D68">
         <v>1.08643837019021</v>
       </c>
-      <c r="E68" s="4">
+      <c r="E68" s="5">
         <v>1.67232501449244e-7</v>
       </c>
       <c r="F68">
         <f t="shared" ref="F68:F99" si="10">F67+0.0369346733668338</f>
         <v>7.58768844221104</v>
       </c>
-      <c r="G68" s="3">
+      <c r="G68" s="4">
         <f t="shared" ref="G68:G99" si="11">5/2*(1/C68+1/C67)*(C68-C67)</f>
         <v>0.00449029656364756</v>
       </c>
-      <c r="H68" s="3">
+      <c r="H68" s="4">
         <f t="shared" ref="H68:H99" si="12">(1/B68+1/B67)*(B68-B67)</f>
         <v>0.0148853919982089</v>
       </c>
-      <c r="I68" s="3">
+      <c r="I68" s="4">
         <f t="shared" ref="I68:I99" si="13">83140000/2.4942*(G68+H68)/((E67+E68)*31560000000000)</f>
         <v>0.0606139849071693</v>
       </c>
-      <c r="J68" s="3">
+      <c r="J68" s="4">
         <f t="shared" ref="J68:J99" si="14">J67+I68</f>
         <v>2.84917684344362</v>
       </c>
@@ -3535,26 +3539,26 @@
       <c r="D69">
         <v>1.08195063459353</v>
       </c>
-      <c r="E69" s="4">
+      <c r="E69" s="5">
         <v>1.64237521247207e-7</v>
       </c>
       <c r="F69">
         <f t="shared" si="10"/>
         <v>7.62462311557787</v>
       </c>
-      <c r="G69" s="3">
+      <c r="G69" s="4">
         <f t="shared" si="11"/>
         <v>0.00443671784600781</v>
       </c>
-      <c r="H69" s="3">
+      <c r="H69" s="4">
         <f t="shared" si="12"/>
         <v>0.0144074839008409</v>
       </c>
-      <c r="I69" s="3">
+      <c r="I69" s="4">
         <f t="shared" si="13"/>
         <v>0.0600447772265803</v>
       </c>
-      <c r="J69" s="3">
+      <c r="J69" s="4">
         <f t="shared" si="14"/>
         <v>2.9092216206702</v>
       </c>
@@ -3572,26 +3576,26 @@
       <c r="D70">
         <v>1.077869732733</v>
       </c>
-      <c r="E70" s="4">
+      <c r="E70" s="5">
         <v>1.61390586438062e-7</v>
       </c>
       <c r="F70">
         <f t="shared" si="10"/>
         <v>7.6615577889447</v>
       </c>
-      <c r="G70" s="3">
+      <c r="G70" s="4">
         <f t="shared" si="11"/>
         <v>0.00438264122199086</v>
       </c>
-      <c r="H70" s="3">
+      <c r="H70" s="4">
         <f t="shared" si="12"/>
         <v>0.0139457847261732</v>
       </c>
-      <c r="I70" s="3">
+      <c r="I70" s="4">
         <f t="shared" si="13"/>
         <v>0.059449065818874</v>
       </c>
-      <c r="J70" s="3">
+      <c r="J70" s="4">
         <f t="shared" si="14"/>
         <v>2.96867068648908</v>
       </c>
@@ -3609,26 +3613,26 @@
       <c r="D71">
         <v>1.07417745987867</v>
       </c>
-      <c r="E71" s="4">
+      <c r="E71" s="5">
         <v>1.58682873607987e-7</v>
       </c>
       <c r="F71">
         <f t="shared" si="10"/>
         <v>7.69849246231154</v>
       </c>
-      <c r="G71" s="3">
+      <c r="G71" s="4">
         <f t="shared" si="11"/>
         <v>0.00432981682943461</v>
       </c>
-      <c r="H71" s="3">
+      <c r="H71" s="4">
         <f t="shared" si="12"/>
         <v>0.0134984875957904</v>
       </c>
-      <c r="I71" s="3">
+      <c r="I71" s="4">
         <f t="shared" si="13"/>
         <v>0.0588304441666771</v>
       </c>
-      <c r="J71" s="3">
+      <c r="J71" s="4">
         <f t="shared" si="14"/>
         <v>3.02750113065575</v>
       </c>
@@ -3646,26 +3650,26 @@
       <c r="D72">
         <v>1.07085436254234</v>
       </c>
-      <c r="E72" s="4">
+      <c r="E72" s="5">
         <v>1.56105692876768e-7</v>
       </c>
       <c r="F72">
         <f t="shared" si="10"/>
         <v>7.73542713567837</v>
       </c>
-      <c r="G72" s="3">
+      <c r="G72" s="4">
         <f t="shared" si="11"/>
         <v>0.00427668197701523</v>
       </c>
-      <c r="H72" s="3">
+      <c r="H72" s="4">
         <f t="shared" si="12"/>
         <v>0.0130666684730743</v>
       </c>
-      <c r="I72" s="3">
+      <c r="I72" s="4">
         <f t="shared" si="13"/>
         <v>0.0581909973429981</v>
       </c>
-      <c r="J72" s="3">
+      <c r="J72" s="4">
         <f t="shared" si="14"/>
         <v>3.08569212799875</v>
       </c>
@@ -3683,26 +3687,26 @@
       <c r="D73">
         <v>1.06788407129876</v>
       </c>
-      <c r="E73" s="4">
+      <c r="E73" s="5">
         <v>1.53651427552733e-7</v>
       </c>
       <c r="F73">
         <f t="shared" si="10"/>
         <v>7.77236180904521</v>
       </c>
-      <c r="G73" s="3">
+      <c r="G73" s="4">
         <f t="shared" si="11"/>
         <v>0.00422460758818431</v>
       </c>
-      <c r="H73" s="3">
+      <c r="H73" s="4">
         <f t="shared" si="12"/>
         <v>0.0126475281117747</v>
       </c>
-      <c r="I73" s="3">
+      <c r="I73" s="4">
         <f t="shared" si="13"/>
         <v>0.0575294884220063</v>
       </c>
-      <c r="J73" s="3">
+      <c r="J73" s="4">
         <f t="shared" si="14"/>
         <v>3.14322161642076</v>
       </c>
@@ -3720,26 +3724,26 @@
       <c r="D74">
         <v>1.06525044876083</v>
       </c>
-      <c r="E74" s="4">
+      <c r="E74" s="5">
         <v>1.51312854383494e-7</v>
       </c>
       <c r="F74">
         <f t="shared" si="10"/>
         <v>7.80929648241204</v>
       </c>
-      <c r="G74" s="3">
+      <c r="G74" s="4">
         <f t="shared" si="11"/>
         <v>0.00417299952631976</v>
       </c>
-      <c r="H74" s="3">
+      <c r="H74" s="4">
         <f t="shared" si="12"/>
         <v>0.01224166765793</v>
       </c>
-      <c r="I74" s="3">
+      <c r="I74" s="4">
         <f t="shared" si="13"/>
         <v>0.0568492651862667</v>
       </c>
-      <c r="J74" s="3">
+      <c r="J74" s="4">
         <f t="shared" si="14"/>
         <v>3.20007088160702</v>
       </c>
@@ -3757,26 +3761,26 @@
       <c r="D75">
         <v>1.06293721124771</v>
       </c>
-      <c r="E75" s="4">
+      <c r="E75" s="5">
         <v>1.49082992833286e-7</v>
       </c>
       <c r="F75">
         <f t="shared" si="10"/>
         <v>7.84623115577887</v>
       </c>
-      <c r="G75" s="3">
+      <c r="G75" s="4">
         <f t="shared" si="11"/>
         <v>0.00412094280736884</v>
       </c>
-      <c r="H75" s="3">
+      <c r="H75" s="4">
         <f t="shared" si="12"/>
         <v>0.0118494852573988</v>
       </c>
-      <c r="I75" s="3">
+      <c r="I75" s="4">
         <f t="shared" si="13"/>
         <v>0.0561518905853592</v>
       </c>
-      <c r="J75" s="3">
+      <c r="J75" s="4">
         <f t="shared" si="14"/>
         <v>3.25622277219238</v>
       </c>
@@ -3794,26 +3798,26 @@
       <c r="D76">
         <v>1.06093221199705</v>
       </c>
-      <c r="E76" s="4">
+      <c r="E76" s="5">
         <v>1.46956009916156e-7</v>
       </c>
       <c r="F76">
         <f t="shared" si="10"/>
         <v>7.88316582914571</v>
       </c>
-      <c r="G76" s="3">
+      <c r="G76" s="4">
         <f t="shared" si="11"/>
         <v>0.00407024879398586</v>
       </c>
-      <c r="H76" s="3">
+      <c r="H76" s="4">
         <f t="shared" si="12"/>
         <v>0.0114685415190949</v>
       </c>
-      <c r="I76" s="3">
+      <c r="I76" s="4">
         <f t="shared" si="13"/>
         <v>0.0554383153277475</v>
       </c>
-      <c r="J76" s="3">
+      <c r="J76" s="4">
         <f t="shared" si="14"/>
         <v>3.31166108752013</v>
       </c>
@@ -3831,26 +3835,26 @@
       <c r="D77">
         <v>1.05922117280223</v>
       </c>
-      <c r="E77" s="4">
+      <c r="E77" s="5">
         <v>1.44925972338708e-7</v>
       </c>
       <c r="F77">
         <f t="shared" si="10"/>
         <v>7.92010050251254</v>
       </c>
-      <c r="G77" s="3">
+      <c r="G77" s="4">
         <f t="shared" si="11"/>
         <v>0.00401996186654298</v>
       </c>
-      <c r="H77" s="3">
+      <c r="H77" s="4">
         <f t="shared" si="12"/>
         <v>0.0110986765050564</v>
       </c>
-      <c r="I77" s="3">
+      <c r="I77" s="4">
         <f t="shared" si="13"/>
         <v>0.0547075344918041</v>
       </c>
-      <c r="J77" s="3">
+      <c r="J77" s="4">
         <f t="shared" si="14"/>
         <v>3.36636862201193</v>
       </c>
@@ -3868,26 +3872,26 @@
       <c r="D78">
         <v>1.05779152939915</v>
       </c>
-      <c r="E78" s="4">
+      <c r="E78" s="5">
         <v>1.42987455033384e-7</v>
       </c>
       <c r="F78">
         <f t="shared" si="10"/>
         <v>7.95703517587937</v>
       </c>
-      <c r="G78" s="3">
+      <c r="G78" s="4">
         <f t="shared" si="11"/>
         <v>0.00396955576859524</v>
       </c>
-      <c r="H78" s="3">
+      <c r="H78" s="4">
         <f t="shared" si="12"/>
         <v>0.0107406752369566</v>
       </c>
-      <c r="I78" s="3">
+      <c r="I78" s="4">
         <f t="shared" si="13"/>
         <v>0.053963402388375</v>
       </c>
-      <c r="J78" s="3">
+      <c r="J78" s="4">
         <f t="shared" si="14"/>
         <v>3.42033202440031</v>
       </c>
@@ -3905,26 +3909,26 @@
       <c r="D79">
         <v>1.05663326523416</v>
       </c>
-      <c r="E79" s="4">
+      <c r="E79" s="5">
         <v>1.41135736521304e-7</v>
       </c>
       <c r="F79">
         <f t="shared" si="10"/>
         <v>7.99396984924621</v>
       </c>
-      <c r="G79" s="3">
+      <c r="G79" s="4">
         <f t="shared" si="11"/>
         <v>0.00392030642691391</v>
       </c>
-      <c r="H79" s="3">
+      <c r="H79" s="4">
         <f t="shared" si="12"/>
         <v>0.0103936408681905</v>
       </c>
-      <c r="I79" s="3">
+      <c r="I79" s="4">
         <f t="shared" si="13"/>
         <v>0.0532101496152805</v>
       </c>
-      <c r="J79" s="3">
+      <c r="J79" s="4">
         <f t="shared" si="14"/>
         <v>3.47354217401559</v>
       </c>
@@ -3942,26 +3946,26 @@
       <c r="D80">
         <v>1.05573365191399</v>
       </c>
-      <c r="E80" s="4">
+      <c r="E80" s="5">
         <v>1.39365869083642e-7</v>
       </c>
       <c r="F80">
         <f t="shared" si="10"/>
         <v>8.03090452261304</v>
       </c>
-      <c r="G80" s="3">
+      <c r="G80" s="4">
         <f t="shared" si="11"/>
         <v>0.00387074409946553</v>
       </c>
-      <c r="H80" s="3">
+      <c r="H80" s="4">
         <f t="shared" si="12"/>
         <v>0.0100563772007525</v>
       </c>
-      <c r="I80" s="3">
+      <c r="I80" s="4">
         <f t="shared" si="13"/>
         <v>0.0524406127204074</v>
       </c>
-      <c r="J80" s="3">
+      <c r="J80" s="4">
         <f t="shared" si="14"/>
         <v>3.525982786736</v>
       </c>
@@ -3979,26 +3983,26 @@
       <c r="D81">
         <v>1.05508277643654</v>
       </c>
-      <c r="E81" s="4">
+      <c r="E81" s="5">
         <v>1.37673590866271e-7</v>
       </c>
       <c r="F81">
         <f t="shared" si="10"/>
         <v>8.06783919597988</v>
       </c>
-      <c r="G81" s="3">
+      <c r="G81" s="4">
         <f t="shared" si="11"/>
         <v>0.00382173987132152</v>
       </c>
-      <c r="H81" s="3">
+      <c r="H81" s="4">
         <f t="shared" si="12"/>
         <v>0.00972910169705248</v>
       </c>
-      <c r="I81" s="3">
+      <c r="I81" s="4">
         <f t="shared" si="13"/>
         <v>0.0516614256128319</v>
       </c>
-      <c r="J81" s="3">
+      <c r="J81" s="4">
         <f t="shared" si="14"/>
         <v>3.57764421234883</v>
       </c>
@@ -4016,26 +4020,26 @@
       <c r="D82">
         <v>1.0546737800299</v>
       </c>
-      <c r="E82" s="4">
+      <c r="E82" s="5">
         <v>1.36055309003485e-7</v>
       </c>
       <c r="F82">
         <f t="shared" si="10"/>
         <v>8.10477386934671</v>
       </c>
-      <c r="G82" s="3">
+      <c r="G82" s="4">
         <f t="shared" si="11"/>
         <v>0.00377477637695905</v>
       </c>
-      <c r="H82" s="3">
+      <c r="H82" s="4">
         <f t="shared" si="12"/>
         <v>0.00941063419673468</v>
       </c>
-      <c r="I82" s="3">
+      <c r="I82" s="4">
         <f t="shared" si="13"/>
         <v>0.050876210599114</v>
       </c>
-      <c r="J82" s="3">
+      <c r="J82" s="4">
         <f t="shared" si="14"/>
         <v>3.62852042294794</v>
       </c>
@@ -4053,26 +4057,26 @@
       <c r="D83">
         <v>1.05449300877451</v>
       </c>
-      <c r="E83" s="4">
+      <c r="E83" s="5">
         <v>1.34506492903689e-7</v>
       </c>
       <c r="F83">
         <f t="shared" si="10"/>
         <v>8.14170854271354</v>
       </c>
-      <c r="G83" s="3">
+      <c r="G83" s="4">
         <f t="shared" si="11"/>
         <v>0.00372562664830907</v>
       </c>
-      <c r="H83" s="3">
+      <c r="H83" s="4">
         <f t="shared" si="12"/>
         <v>0.00910251176337755</v>
       </c>
-      <c r="I83" s="3">
+      <c r="I83" s="4">
         <f t="shared" si="13"/>
         <v>0.0500770694076756</v>
       </c>
-      <c r="J83" s="3">
+      <c r="J83" s="4">
         <f t="shared" si="14"/>
         <v>3.67859749235562</v>
       </c>
@@ -4090,26 +4094,26 @@
       <c r="D84">
         <v>1.05453554271398</v>
       </c>
-      <c r="E84" s="4">
+      <c r="E84" s="5">
         <v>1.33024193520282e-7</v>
       </c>
       <c r="F84">
         <f t="shared" si="10"/>
         <v>8.17864321608037</v>
       </c>
-      <c r="G84" s="3">
+      <c r="G84" s="4">
         <f t="shared" si="11"/>
         <v>0.00367873478479165</v>
       </c>
-      <c r="H84" s="3">
+      <c r="H84" s="4">
         <f t="shared" si="12"/>
         <v>0.00880278941373048</v>
       </c>
-      <c r="I84" s="3">
+      <c r="I84" s="4">
         <f t="shared" si="13"/>
         <v>0.0492760366928972</v>
       </c>
-      <c r="J84" s="3">
+      <c r="J84" s="4">
         <f t="shared" si="14"/>
         <v>3.72787352904852</v>
       </c>
@@ -4127,26 +4131,26 @@
       <c r="D85">
         <v>1.05479355789352</v>
       </c>
-      <c r="E85" s="4">
+      <c r="E85" s="5">
         <v>1.31605173750811e-7</v>
       </c>
       <c r="F85">
         <f t="shared" si="10"/>
         <v>8.21557788944721</v>
       </c>
-      <c r="G85" s="3">
+      <c r="G85" s="4">
         <f t="shared" si="11"/>
         <v>0.00363272072239808</v>
       </c>
-      <c r="H85" s="3">
+      <c r="H85" s="4">
         <f t="shared" si="12"/>
         <v>0.00851075744497286</v>
       </c>
-      <c r="I85" s="3">
+      <c r="I85" s="4">
         <f t="shared" si="13"/>
         <v>0.0484670747710136</v>
       </c>
-      <c r="J85" s="3">
+      <c r="J85" s="4">
         <f t="shared" si="14"/>
         <v>3.77634060381953</v>
       </c>
@@ -4164,26 +4168,26 @@
       <c r="D86">
         <v>1.05525576084543</v>
       </c>
-      <c r="E86" s="4">
+      <c r="E86" s="5">
         <v>1.30245722889448e-7</v>
       </c>
       <c r="F86">
         <f t="shared" si="10"/>
         <v>8.25251256281404</v>
       </c>
-      <c r="G86" s="3">
+      <c r="G86" s="4">
         <f t="shared" si="11"/>
         <v>0.00358501615586732</v>
       </c>
-      <c r="H86" s="3">
+      <c r="H86" s="4">
         <f t="shared" si="12"/>
         <v>0.00822743689680601</v>
       </c>
-      <c r="I86" s="3">
+      <c r="I86" s="4">
         <f t="shared" si="13"/>
         <v>0.0476461463995768</v>
       </c>
-      <c r="J86" s="3">
+      <c r="J86" s="4">
         <f t="shared" si="14"/>
         <v>3.82398675021911</v>
       </c>
@@ -4201,26 +4205,26 @@
       <c r="D87">
         <v>1.05591881580149</v>
       </c>
-      <c r="E87" s="4">
+      <c r="E87" s="5">
         <v>1.28943539944282e-7</v>
       </c>
       <c r="F87">
         <f t="shared" si="10"/>
         <v>8.28944723618087</v>
       </c>
-      <c r="G87" s="3">
+      <c r="G87" s="4">
         <f t="shared" si="11"/>
         <v>0.00353959471064796</v>
       </c>
-      <c r="H87" s="3">
+      <c r="H87" s="4">
         <f t="shared" si="12"/>
         <v>0.00795232246875199</v>
       </c>
-      <c r="I87" s="3">
+      <c r="I87" s="4">
         <f t="shared" si="13"/>
         <v>0.046829253163354</v>
       </c>
-      <c r="J87" s="3">
+      <c r="J87" s="4">
         <f t="shared" si="14"/>
         <v>3.87081600338246</v>
       </c>
@@ -4238,26 +4242,26 @@
       <c r="D88">
         <v>1.05677461749063</v>
       </c>
-      <c r="E88" s="4">
+      <c r="E88" s="5">
         <v>1.27695720088377e-7</v>
       </c>
       <c r="F88">
         <f t="shared" si="10"/>
         <v>8.32638190954771</v>
       </c>
-      <c r="G88" s="3">
+      <c r="G88" s="4">
         <f t="shared" si="11"/>
         <v>0.00349426998628104</v>
       </c>
-      <c r="H88" s="3">
+      <c r="H88" s="4">
         <f t="shared" si="12"/>
         <v>0.00768398158753725</v>
       </c>
-      <c r="I88" s="3">
+      <c r="I88" s="4">
         <f t="shared" si="13"/>
         <v>0.0460036759701339</v>
       </c>
-      <c r="J88" s="3">
+      <c r="J88" s="4">
         <f t="shared" si="14"/>
         <v>3.91681967935259</v>
       </c>
@@ -4275,26 +4279,26 @@
       <c r="D89">
         <v>1.05781672806887</v>
       </c>
-      <c r="E89" s="4">
+      <c r="E89" s="5">
         <v>1.26499719709302e-7</v>
       </c>
       <c r="F89">
         <f t="shared" si="10"/>
         <v>8.36331658291454</v>
       </c>
-      <c r="G89" s="3">
+      <c r="G89" s="4">
         <f t="shared" si="11"/>
         <v>0.00344922139908527</v>
       </c>
-      <c r="H89" s="3">
+      <c r="H89" s="4">
         <f t="shared" si="12"/>
         <v>0.00742334626119014</v>
       </c>
-      <c r="I89" s="3">
+      <c r="I89" s="4">
         <f t="shared" si="13"/>
         <v>0.045175827307019</v>
       </c>
-      <c r="J89" s="3">
+      <c r="J89" s="4">
         <f t="shared" si="14"/>
         <v>3.96199550665961</v>
       </c>
@@ -4312,26 +4316,26 @@
       <c r="D90">
         <v>1.05903920080104</v>
       </c>
-      <c r="E90" s="4">
+      <c r="E90" s="5">
         <v>1.25353117759322e-7</v>
       </c>
       <c r="F90">
         <f t="shared" si="10"/>
         <v>8.40025125628137</v>
       </c>
-      <c r="G90" s="3">
+      <c r="G90" s="4">
         <f t="shared" si="11"/>
         <v>0.00340472826352236</v>
       </c>
-      <c r="H90" s="3">
+      <c r="H90" s="4">
         <f t="shared" si="12"/>
         <v>0.00716961653825415</v>
       </c>
-      <c r="I90" s="3">
+      <c r="I90" s="4">
         <f t="shared" si="13"/>
         <v>0.0443453789118859</v>
       </c>
-      <c r="J90" s="3">
+      <c r="J90" s="4">
         <f t="shared" si="14"/>
         <v>4.0063408855715</v>
       </c>
@@ -4349,26 +4353,26 @@
       <c r="D91">
         <v>1.06043615676001</v>
       </c>
-      <c r="E91" s="4">
+      <c r="E91" s="5">
         <v>1.24253649589115e-7</v>
       </c>
       <c r="F91">
         <f t="shared" si="10"/>
         <v>8.4371859296482</v>
       </c>
-      <c r="G91" s="3">
+      <c r="G91" s="4">
         <f t="shared" si="11"/>
         <v>0.00336057064026175</v>
       </c>
-      <c r="H91" s="3">
+      <c r="H91" s="4">
         <f t="shared" si="12"/>
         <v>0.00692273693087971</v>
       </c>
-      <c r="I91" s="3">
+      <c r="I91" s="4">
         <f t="shared" si="13"/>
         <v>0.043512919233107</v>
       </c>
-      <c r="J91" s="3">
+      <c r="J91" s="4">
         <f t="shared" si="14"/>
         <v>4.04985380480461</v>
       </c>
@@ -4386,26 +4390,26 @@
       <c r="D92">
         <v>1.06200257596571</v>
       </c>
-      <c r="E92" s="4">
+      <c r="E92" s="5">
         <v>1.23199256376976e-7</v>
       </c>
       <c r="F92">
         <f t="shared" si="10"/>
         <v>8.47412060301504</v>
       </c>
-      <c r="G92" s="3">
+      <c r="G92" s="4">
         <f t="shared" si="11"/>
         <v>0.00331711535376292</v>
       </c>
-      <c r="H92" s="3">
+      <c r="H92" s="4">
         <f t="shared" si="12"/>
         <v>0.00668232525058389</v>
       </c>
-      <c r="I92" s="3">
+      <c r="I92" s="4">
         <f t="shared" si="13"/>
         <v>0.0426800478347642</v>
       </c>
-      <c r="J92" s="3">
+      <c r="J92" s="4">
         <f t="shared" si="14"/>
         <v>4.09253385263937</v>
       </c>
@@ -4423,26 +4427,26 @@
       <c r="D93">
         <v>1.06373276633025</v>
       </c>
-      <c r="E93" s="4">
+      <c r="E93" s="5">
         <v>1.22187839980622e-7</v>
       </c>
       <c r="F93">
         <f t="shared" si="10"/>
         <v>8.51105527638187</v>
       </c>
-      <c r="G93" s="3">
+      <c r="G93" s="4">
         <f t="shared" si="11"/>
         <v>0.00327355674478171</v>
       </c>
-      <c r="H93" s="3">
+      <c r="H93" s="4">
         <f t="shared" si="12"/>
         <v>0.00644864830996533</v>
       </c>
-      <c r="I93" s="3">
+      <c r="I93" s="4">
         <f t="shared" si="13"/>
         <v>0.0418460823873765</v>
       </c>
-      <c r="J93" s="3">
+      <c r="J93" s="4">
         <f t="shared" si="14"/>
         <v>4.13437993502675</v>
       </c>
@@ -4460,26 +4464,26 @@
       <c r="D94">
         <v>1.0656224498925</v>
       </c>
-      <c r="E94" s="4">
+      <c r="E94" s="5">
         <v>1.21217638149074e-7</v>
       </c>
       <c r="F94">
         <f t="shared" si="10"/>
         <v>8.5479899497487</v>
       </c>
-      <c r="G94" s="3">
+      <c r="G94" s="4">
         <f t="shared" si="11"/>
         <v>0.00323147422806548</v>
       </c>
-      <c r="H94" s="3">
+      <c r="H94" s="4">
         <f t="shared" si="12"/>
         <v>0.00622012302699891</v>
       </c>
-      <c r="I94" s="3">
+      <c r="I94" s="4">
         <f t="shared" si="13"/>
         <v>0.0410125346131108</v>
       </c>
-      <c r="J94" s="3">
+      <c r="J94" s="4">
         <f t="shared" si="14"/>
         <v>4.17539246963986</v>
       </c>
@@ -4497,26 +4501,26 @@
       <c r="D95">
         <v>1.06766653433385</v>
       </c>
-      <c r="E95" s="4">
+      <c r="E95" s="5">
         <v>1.20286777007047e-7</v>
       </c>
       <c r="F95">
         <f t="shared" si="10"/>
         <v>8.58492462311554</v>
       </c>
-      <c r="G95" s="3">
+      <c r="G95" s="4">
         <f t="shared" si="11"/>
         <v>0.00318897386623482</v>
       </c>
-      <c r="H95" s="3">
+      <c r="H95" s="4">
         <f t="shared" si="12"/>
         <v>0.00599813079123298</v>
       </c>
-      <c r="I95" s="3">
+      <c r="I95" s="4">
         <f t="shared" si="13"/>
         <v>0.0401786499315129</v>
       </c>
-      <c r="J95" s="3">
+      <c r="J95" s="4">
         <f t="shared" si="14"/>
         <v>4.21557111957137</v>
       </c>
@@ -4534,26 +4538,26 @@
       <c r="D96">
         <v>1.06986082591546</v>
       </c>
-      <c r="E96" s="4">
+      <c r="E96" s="5">
         <v>1.19393605753096e-7</v>
       </c>
       <c r="F96">
         <f t="shared" si="10"/>
         <v>8.62185929648237</v>
       </c>
-      <c r="G96" s="3">
+      <c r="G96" s="4">
         <f t="shared" si="11"/>
         <v>0.0031471084363386</v>
       </c>
-      <c r="H96" s="3">
+      <c r="H96" s="4">
         <f t="shared" si="12"/>
         <v>0.00578210293599558</v>
       </c>
-      <c r="I96" s="3">
+      <c r="I96" s="4">
         <f t="shared" si="13"/>
         <v>0.0393479730152757</v>
       </c>
-      <c r="J96" s="3">
+      <c r="J96" s="4">
         <f t="shared" si="14"/>
         <v>4.25491909258665</v>
       </c>
@@ -4571,26 +4575,26 @@
       <c r="D97">
         <v>1.07220099650212</v>
       </c>
-      <c r="E97" s="4">
+      <c r="E97" s="5">
         <v>1.1853650987986e-7</v>
       </c>
       <c r="F97">
         <f t="shared" si="10"/>
         <v>8.6587939698492</v>
       </c>
-      <c r="G97" s="3">
+      <c r="G97" s="4">
         <f t="shared" si="11"/>
         <v>0.00310557676779252</v>
       </c>
-      <c r="H97" s="3">
+      <c r="H97" s="4">
         <f t="shared" si="12"/>
         <v>0.00557159535377068</v>
       </c>
-      <c r="I97" s="3">
+      <c r="I97" s="4">
         <f t="shared" si="13"/>
         <v>0.0385186047453299</v>
       </c>
-      <c r="J97" s="3">
+      <c r="J97" s="4">
         <f t="shared" si="14"/>
         <v>4.29343769733198</v>
       </c>
@@ -4608,26 +4612,26 @@
       <c r="D98">
         <v>1.07468306581498</v>
       </c>
-      <c r="E98" s="4">
+      <c r="E98" s="5">
         <v>1.1771402288481e-7</v>
       </c>
       <c r="F98">
         <f t="shared" si="10"/>
         <v>8.69572864321604</v>
       </c>
-      <c r="G98" s="3">
+      <c r="G98" s="4">
         <f t="shared" si="11"/>
         <v>0.00306471068317882</v>
       </c>
-      <c r="H98" s="3">
+      <c r="H98" s="4">
         <f t="shared" si="12"/>
         <v>0.00536591736889171</v>
       </c>
-      <c r="I98" s="3">
+      <c r="I98" s="4">
         <f t="shared" si="13"/>
         <v>0.0376902383089376</v>
       </c>
-      <c r="J98" s="3">
+      <c r="J98" s="4">
         <f t="shared" si="14"/>
         <v>4.33112793564091</v>
       </c>
@@ -4645,26 +4649,26 @@
       <c r="D99">
         <v>1.07730362174786</v>
       </c>
-      <c r="E99" s="4">
+      <c r="E99" s="5">
         <v>1.16924756677196e-7</v>
       </c>
       <c r="F99">
         <f t="shared" si="10"/>
         <v>8.73266331658287</v>
       </c>
-      <c r="G99" s="3">
+      <c r="G99" s="4">
         <f t="shared" si="11"/>
         <v>0.00302440283165243</v>
       </c>
-      <c r="H99" s="3">
+      <c r="H99" s="4">
         <f t="shared" si="12"/>
         <v>0.00516563456224647</v>
       </c>
-      <c r="I99" s="3">
+      <c r="I99" s="4">
         <f t="shared" si="13"/>
         <v>0.0368661549691417</v>
       </c>
-      <c r="J99" s="3">
+      <c r="J99" s="4">
         <f t="shared" si="14"/>
         <v>4.36799409061005</v>
       </c>
@@ -4682,26 +4686,26 @@
       <c r="D100">
         <v>1.08005840890946</v>
       </c>
-      <c r="E100" s="4">
+      <c r="E100" s="5">
         <v>1.16167283308188e-7</v>
       </c>
       <c r="F100">
         <f t="shared" ref="F100:F131" si="15">F99+0.0369346733668338</f>
         <v>8.7695979899497</v>
       </c>
-      <c r="G100" s="3">
+      <c r="G100" s="4">
         <f t="shared" ref="G100:G131" si="16">5/2*(1/C100+1/C99)*(C100-C99)</f>
         <v>0.00298414379388369</v>
       </c>
-      <c r="H100" s="3">
+      <c r="H100" s="4">
         <f t="shared" ref="H100:H131" si="17">(1/B100+1/B99)*(B100-B99)</f>
         <v>0.00497040325642572</v>
       </c>
-      <c r="I100" s="3">
+      <c r="I100" s="4">
         <f t="shared" ref="I100:I131" si="18">83140000/2.4942*(G100+H100)/((E99+E100)*31560000000000)</f>
         <v>0.0360437329209101</v>
       </c>
-      <c r="J100" s="3">
+      <c r="J100" s="4">
         <f t="shared" ref="J100:J131" si="19">J99+I100</f>
         <v>4.40403782353096</v>
       </c>
@@ -4719,26 +4723,26 @@
       <c r="D101">
         <v>1.08294440704371</v>
       </c>
-      <c r="E101" s="4">
+      <c r="E101" s="5">
         <v>1.15440395878459e-7</v>
       </c>
       <c r="F101">
         <f t="shared" si="15"/>
         <v>8.80653266331653</v>
       </c>
-      <c r="G101" s="3">
+      <c r="G101" s="4">
         <f t="shared" si="16"/>
         <v>0.00294466992394221</v>
       </c>
-      <c r="H101" s="3">
+      <c r="H101" s="4">
         <f t="shared" si="17"/>
         <v>0.00477973011524778</v>
       </c>
-      <c r="I101" s="3">
+      <c r="I101" s="4">
         <f t="shared" si="18"/>
         <v>0.0352252069551844</v>
       </c>
-      <c r="J101" s="3">
+      <c r="J101" s="4">
         <f t="shared" si="19"/>
         <v>4.43926303048615</v>
       </c>
@@ -4756,26 +4760,26 @@
       <c r="D102">
         <v>1.08595853401655</v>
       </c>
-      <c r="E102" s="4">
+      <c r="E102" s="5">
         <v>1.14742884537476e-7</v>
       </c>
       <c r="F102">
         <f t="shared" si="15"/>
         <v>8.84346733668337</v>
       </c>
-      <c r="G102" s="3">
+      <c r="G102" s="4">
         <f t="shared" si="16"/>
         <v>0.0029054451027903</v>
       </c>
-      <c r="H102" s="3">
+      <c r="H102" s="4">
         <f t="shared" si="17"/>
         <v>0.00459454576773171</v>
       </c>
-      <c r="I102" s="3">
+      <c r="I102" s="4">
         <f t="shared" si="18"/>
         <v>0.0344134893794512</v>
       </c>
-      <c r="J102" s="3">
+      <c r="J102" s="4">
         <f t="shared" si="19"/>
         <v>4.4736765198656</v>
       </c>
@@ -4793,26 +4797,26 @@
       <c r="D103">
         <v>1.08909709546912</v>
       </c>
-      <c r="E103" s="4">
+      <c r="E103" s="5">
         <v>1.14073570624751e-7</v>
       </c>
       <c r="F103">
         <f t="shared" si="15"/>
         <v>8.8804020100502</v>
       </c>
-      <c r="G103" s="3">
+      <c r="G103" s="4">
         <f t="shared" si="16"/>
         <v>0.00286661869235696</v>
       </c>
-      <c r="H103" s="3">
+      <c r="H103" s="4">
         <f t="shared" si="17"/>
         <v>0.00441315946172759</v>
       </c>
-      <c r="I103" s="3">
+      <c r="I103" s="4">
         <f t="shared" si="18"/>
         <v>0.0336025814334262</v>
       </c>
-      <c r="J103" s="3">
+      <c r="J103" s="4">
         <f t="shared" si="19"/>
         <v>4.50727910129903</v>
       </c>
@@ -4830,26 +4834,26 @@
       <c r="D104">
         <v>1.09235748479896</v>
       </c>
-      <c r="E104" s="4">
+      <c r="E104" s="5">
         <v>1.13431415998166e-7</v>
       </c>
       <c r="F104">
         <f t="shared" si="15"/>
         <v>8.91733668341703</v>
       </c>
-      <c r="G104" s="3">
+      <c r="G104" s="4">
         <f t="shared" si="16"/>
         <v>0.00282836243013306</v>
       </c>
-      <c r="H104" s="3">
+      <c r="H104" s="4">
         <f t="shared" si="17"/>
         <v>0.0042364428293714</v>
       </c>
-      <c r="I104" s="3">
+      <c r="I104" s="4">
         <f t="shared" si="18"/>
         <v>0.0327982767070412</v>
       </c>
-      <c r="J104" s="3">
+      <c r="J104" s="4">
         <f t="shared" si="19"/>
         <v>4.54007737800607</v>
       </c>
@@ -4867,26 +4871,26 @@
       <c r="D105">
         <v>1.09573649862552</v>
       </c>
-      <c r="E105" s="4">
+      <c r="E105" s="5">
         <v>1.12815299708412e-7</v>
       </c>
       <c r="F105">
         <f t="shared" si="15"/>
         <v>8.95427135678387</v>
       </c>
-      <c r="G105" s="3">
+      <c r="G105" s="4">
         <f t="shared" si="16"/>
         <v>0.00279004338391362</v>
       </c>
-      <c r="H105" s="3">
+      <c r="H105" s="4">
         <f t="shared" si="17"/>
         <v>0.00406423744541903</v>
       </c>
-      <c r="I105" s="3">
+      <c r="I105" s="4">
         <f t="shared" si="18"/>
         <v>0.0319978914913601</v>
       </c>
-      <c r="J105" s="3">
+      <c r="J105" s="4">
         <f t="shared" si="19"/>
         <v>4.57207526949743</v>
       </c>
@@ -4904,26 +4908,26 @@
       <c r="D106">
         <v>1.09923188572598</v>
       </c>
-      <c r="E106" s="4">
+      <c r="E106" s="5">
         <v>1.12224349910285e-7</v>
       </c>
       <c r="F106">
         <f t="shared" si="15"/>
         <v>8.9912060301507</v>
       </c>
-      <c r="G106" s="3">
+      <c r="G106" s="4">
         <f t="shared" si="16"/>
         <v>0.00275319216555641</v>
       </c>
-      <c r="H106" s="3">
+      <c r="H106" s="4">
         <f t="shared" si="17"/>
         <v>0.00389544297641005</v>
       </c>
-      <c r="I106" s="3">
+      <c r="I106" s="4">
         <f t="shared" si="18"/>
         <v>0.0312043548908721</v>
       </c>
-      <c r="J106" s="3">
+      <c r="J106" s="4">
         <f t="shared" si="19"/>
         <v>4.6032796243883</v>
       </c>
@@ -4941,26 +4945,26 @@
       <c r="D107">
         <v>1.10284050178006</v>
       </c>
-      <c r="E107" s="4">
+      <c r="E107" s="5">
         <v>1.11657553497252e-7</v>
       </c>
       <c r="F107">
         <f t="shared" si="15"/>
         <v>9.02814070351753</v>
       </c>
-      <c r="G107" s="3">
+      <c r="G107" s="4">
         <f t="shared" si="16"/>
         <v>0.00271568634254251</v>
       </c>
-      <c r="H107" s="3">
+      <c r="H107" s="4">
         <f t="shared" si="17"/>
         <v>0.00373142084640964</v>
       </c>
-      <c r="I107" s="3">
+      <c r="I107" s="4">
         <f t="shared" si="18"/>
         <v>0.0304149881083656</v>
       </c>
-      <c r="J107" s="3">
+      <c r="J107" s="4">
         <f t="shared" si="19"/>
         <v>4.63369461249667</v>
       </c>
@@ -4978,26 +4982,26 @@
       <c r="D108">
         <v>1.10656043975903</v>
       </c>
-      <c r="E108" s="4">
+      <c r="E108" s="5">
         <v>1.11114099440892e-7</v>
       </c>
       <c r="F108">
         <f t="shared" si="15"/>
         <v>9.06507537688437</v>
       </c>
-      <c r="G108" s="3">
+      <c r="G108" s="4">
         <f t="shared" si="16"/>
         <v>0.00267920047084454</v>
       </c>
-      <c r="H108" s="3">
+      <c r="H108" s="4">
         <f t="shared" si="17"/>
         <v>0.00357105519391527</v>
       </c>
-      <c r="I108" s="3">
+      <c r="I108" s="4">
         <f t="shared" si="18"/>
         <v>0.029633271896538</v>
       </c>
-      <c r="J108" s="3">
+      <c r="J108" s="4">
         <f t="shared" si="19"/>
         <v>4.6633278843932</v>
       </c>
@@ -5015,26 +5019,26 @@
       <c r="D109">
         <v>1.11038872481734</v>
       </c>
-      <c r="E109" s="4">
+      <c r="E109" s="5">
         <v>1.10593075646261e-7</v>
       </c>
       <c r="F109">
         <f t="shared" si="15"/>
         <v>9.1020100502512</v>
       </c>
-      <c r="G109" s="3">
+      <c r="G109" s="4">
         <f t="shared" si="16"/>
         <v>0.00264277684068743</v>
       </c>
-      <c r="H109" s="3">
+      <c r="H109" s="4">
         <f t="shared" si="17"/>
         <v>0.00341450658612333</v>
       </c>
-      <c r="I109" s="3">
+      <c r="I109" s="4">
         <f t="shared" si="18"/>
         <v>0.0288562503801829</v>
       </c>
-      <c r="J109" s="3">
+      <c r="J109" s="4">
         <f t="shared" si="19"/>
         <v>4.69218413477339</v>
       </c>
@@ -5052,26 +5056,26 @@
       <c r="D110">
         <v>1.11432322607302</v>
       </c>
-      <c r="E110" s="4">
+      <c r="E110" s="5">
         <v>1.10093710598983e-7</v>
       </c>
       <c r="F110">
         <f t="shared" si="15"/>
         <v>9.13894472361803</v>
       </c>
-      <c r="G110" s="3">
+      <c r="G110" s="4">
         <f t="shared" si="16"/>
         <v>0.00260684770601796</v>
       </c>
-      <c r="H110" s="3">
+      <c r="H110" s="4">
         <f t="shared" si="17"/>
         <v>0.00326165555902459</v>
       </c>
-      <c r="I110" s="3">
+      <c r="I110" s="4">
         <f t="shared" si="18"/>
         <v>0.0280861862179107</v>
       </c>
-      <c r="J110" s="3">
+      <c r="J110" s="4">
         <f t="shared" si="19"/>
         <v>4.7202703209913</v>
       </c>
@@ -5089,26 +5093,26 @@
       <c r="D111">
         <v>1.11836184051214</v>
       </c>
-      <c r="E111" s="4">
+      <c r="E111" s="5">
         <v>1.09615230560302e-7</v>
       </c>
       <c r="F111">
         <f t="shared" si="15"/>
         <v>9.17587939698486</v>
       </c>
-      <c r="G111" s="3">
+      <c r="G111" s="4">
         <f t="shared" si="16"/>
         <v>0.00263271901182678</v>
       </c>
-      <c r="H111" s="3">
+      <c r="H111" s="4">
         <f t="shared" si="17"/>
         <v>0.0031157003345537</v>
       </c>
-      <c r="I111" s="3">
+      <c r="I111" s="4">
         <f t="shared" si="18"/>
         <v>0.0276339178369173</v>
       </c>
-      <c r="J111" s="3">
+      <c r="J111" s="4">
         <f t="shared" si="19"/>
         <v>4.74790423882821</v>
       </c>
@@ -5126,26 +5130,26 @@
       <c r="D112">
         <v>1.12250249386792</v>
       </c>
-      <c r="E112" s="4">
+      <c r="E112" s="5">
         <v>1.09156924406904e-7</v>
       </c>
       <c r="F112">
         <f t="shared" si="15"/>
         <v>9.2128140703517</v>
       </c>
-      <c r="G112" s="3">
+      <c r="G112" s="4">
         <f t="shared" si="16"/>
         <v>0.0024750016921753</v>
       </c>
-      <c r="H112" s="3">
+      <c r="H112" s="4">
         <f t="shared" si="17"/>
         <v>0.00296319486120644</v>
       </c>
-      <c r="I112" s="3">
+      <c r="I112" s="4">
         <f t="shared" si="18"/>
         <v>0.0262545516539433</v>
       </c>
-      <c r="J112" s="3">
+      <c r="J112" s="4">
         <f t="shared" si="19"/>
         <v>4.77415879048216</v>
       </c>
@@ -5163,26 +5167,26 @@
       <c r="D113">
         <v>1.12674313962637</v>
       </c>
-      <c r="E113" s="4">
+      <c r="E113" s="5">
         <v>1.0871809352352e-7</v>
       </c>
       <c r="F113">
         <f t="shared" si="15"/>
         <v>9.24974874371853</v>
       </c>
-      <c r="G113" s="3">
+      <c r="G113" s="4">
         <f t="shared" si="16"/>
         <v>0.00250168866502238</v>
       </c>
-      <c r="H113" s="3">
+      <c r="H113" s="4">
         <f t="shared" si="17"/>
         <v>0.00282410871724879</v>
       </c>
-      <c r="I113" s="3">
+      <c r="I113" s="4">
         <f t="shared" si="18"/>
         <v>0.0258177835076193</v>
       </c>
-      <c r="J113" s="3">
+      <c r="J113" s="4">
         <f t="shared" si="19"/>
         <v>4.79997657398978</v>
       </c>
@@ -5200,26 +5204,26 @@
       <c r="D114">
         <v>1.13108176111696</v>
       </c>
-      <c r="E114" s="4">
+      <c r="E114" s="5">
         <v>1.08298062210305e-7</v>
       </c>
       <c r="F114">
         <f t="shared" si="15"/>
         <v>9.28668341708536</v>
       </c>
-      <c r="G114" s="3">
+      <c r="G114" s="4">
         <f t="shared" si="16"/>
         <v>0.00246736488508581</v>
       </c>
-      <c r="H114" s="3">
+      <c r="H114" s="4">
         <f t="shared" si="17"/>
         <v>0.00268495334703377</v>
       </c>
-      <c r="I114" s="3">
+      <c r="I114" s="4">
         <f t="shared" si="18"/>
         <v>0.0250756595030428</v>
       </c>
-      <c r="J114" s="3">
+      <c r="J114" s="4">
         <f t="shared" si="19"/>
         <v>4.82505223349282</v>
       </c>
@@ -5237,26 +5241,26 @@
       <c r="D115">
         <v>1.1355163707642</v>
       </c>
-      <c r="E115" s="4">
+      <c r="E115" s="5">
         <v>1.07896186704916e-7</v>
       </c>
       <c r="F115">
         <f t="shared" si="15"/>
         <v>9.3236180904522</v>
       </c>
-      <c r="G115" s="3">
+      <c r="G115" s="4">
         <f t="shared" si="16"/>
         <v>0.00243334400583977</v>
       </c>
-      <c r="H115" s="3">
+      <c r="H115" s="4">
         <f t="shared" si="17"/>
         <v>0.00254898688893738</v>
       </c>
-      <c r="I115" s="3">
+      <c r="I115" s="4">
         <f t="shared" si="18"/>
         <v>0.0243405384401202</v>
       </c>
-      <c r="J115" s="3">
+      <c r="J115" s="4">
         <f t="shared" si="19"/>
         <v>4.84939277193294</v>
       </c>
@@ -5274,26 +5278,26 @@
       <c r="D116">
         <v>1.14004500867475</v>
       </c>
-      <c r="E116" s="4">
+      <c r="E116" s="5">
         <v>1.07511848117662e-7</v>
       </c>
       <c r="F116">
         <f t="shared" si="15"/>
         <v>9.36055276381903</v>
       </c>
-      <c r="G116" s="3">
+      <c r="G116" s="4">
         <f t="shared" si="16"/>
         <v>0.00239960736501447</v>
       </c>
-      <c r="H116" s="3">
+      <c r="H116" s="4">
         <f t="shared" si="17"/>
         <v>0.00241613612369821</v>
       </c>
-      <c r="I116" s="3">
+      <c r="I116" s="4">
         <f t="shared" si="18"/>
         <v>0.0236125667261572</v>
       </c>
-      <c r="J116" s="3">
+      <c r="J116" s="4">
         <f t="shared" si="19"/>
         <v>4.8730053386591</v>
       </c>
@@ -5311,26 +5315,26 @@
       <c r="D117">
         <v>1.14466684390652</v>
       </c>
-      <c r="E117" s="4">
+      <c r="E117" s="5">
         <v>1.07144559840935e-7</v>
       </c>
       <c r="F117">
         <f t="shared" si="15"/>
         <v>9.39748743718586</v>
       </c>
-      <c r="G117" s="3">
+      <c r="G117" s="4">
         <f t="shared" si="16"/>
         <v>0.00236684531314284</v>
       </c>
-      <c r="H117" s="3">
+      <c r="H117" s="4">
         <f t="shared" si="17"/>
         <v>0.00228634386707648</v>
       </c>
-      <c r="I117" s="3">
+      <c r="I117" s="4">
         <f t="shared" si="18"/>
         <v>0.0228954193637072</v>
       </c>
-      <c r="J117" s="3">
+      <c r="J117" s="4">
         <f t="shared" si="19"/>
         <v>4.8959007580228</v>
       </c>
@@ -5348,26 +5352,26 @@
       <c r="D118">
         <v>1.14937907888538</v>
       </c>
-      <c r="E118" s="4">
+      <c r="E118" s="5">
         <v>1.06793657729948e-7</v>
       </c>
       <c r="F118">
         <f t="shared" si="15"/>
         <v>9.4344221105527</v>
       </c>
-      <c r="G118" s="3">
+      <c r="G118" s="4">
         <f t="shared" si="16"/>
         <v>0.00233372857207293</v>
       </c>
-      <c r="H118" s="3">
+      <c r="H118" s="4">
         <f t="shared" si="17"/>
         <v>0.00215938371631757</v>
       </c>
-      <c r="I118" s="3">
+      <c r="I118" s="4">
         <f t="shared" si="18"/>
         <v>0.0221819973907353</v>
       </c>
-      <c r="J118" s="3">
+      <c r="J118" s="4">
         <f t="shared" si="19"/>
         <v>4.91808275541354</v>
       </c>
@@ -5385,26 +5389,26 @@
       <c r="D119">
         <v>1.1541809795685</v>
       </c>
-      <c r="E119" s="4">
+      <c r="E119" s="5">
         <v>1.06458699118546e-7</v>
       </c>
       <c r="F119">
         <f t="shared" si="15"/>
         <v>9.47135678391953</v>
       </c>
-      <c r="G119" s="3">
+      <c r="G119" s="4">
         <f t="shared" si="16"/>
         <v>0.00230150025533429</v>
       </c>
-      <c r="H119" s="3">
+      <c r="H119" s="4">
         <f t="shared" si="17"/>
         <v>0.00203540288449522</v>
       </c>
-      <c r="I119" s="3">
+      <c r="I119" s="4">
         <f t="shared" si="18"/>
         <v>0.0214796714333252</v>
       </c>
-      <c r="J119" s="3">
+      <c r="J119" s="4">
         <f t="shared" si="19"/>
         <v>4.93956242684686</v>
       </c>
@@ -5422,26 +5426,26 @@
       <c r="D120">
         <v>1.15907017405474</v>
       </c>
-      <c r="E120" s="4">
+      <c r="E120" s="5">
         <v>1.0613909058038e-7</v>
       </c>
       <c r="F120">
         <f t="shared" si="15"/>
         <v>9.50829145728636</v>
       </c>
-      <c r="G120" s="3">
+      <c r="G120" s="4">
         <f t="shared" si="16"/>
         <v>0.00226912464162118</v>
       </c>
-      <c r="H120" s="3">
+      <c r="H120" s="4">
         <f t="shared" si="17"/>
         <v>0.00191411279682809</v>
       </c>
-      <c r="I120" s="3">
+      <c r="I120" s="4">
         <f t="shared" si="18"/>
         <v>0.0207823914769563</v>
       </c>
-      <c r="J120" s="3">
+      <c r="J120" s="4">
         <f t="shared" si="19"/>
         <v>4.96034481832382</v>
       </c>
@@ -5459,26 +5463,26 @@
       <c r="D121">
         <v>1.16404573234457</v>
       </c>
-      <c r="E121" s="4">
+      <c r="E121" s="5">
         <v>1.05834410594772e-7</v>
       </c>
       <c r="F121">
         <f t="shared" si="15"/>
         <v>9.54522613065319</v>
       </c>
-      <c r="G121" s="3">
+      <c r="G121" s="4">
         <f t="shared" si="16"/>
         <v>0.00223746609558115</v>
       </c>
-      <c r="H121" s="3">
+      <c r="H121" s="4">
         <f t="shared" si="17"/>
         <v>0.00179558560447885</v>
       </c>
-      <c r="I121" s="3">
+      <c r="I121" s="4">
         <f t="shared" si="18"/>
         <v>0.0200952756065383</v>
       </c>
-      <c r="J121" s="3">
+      <c r="J121" s="4">
         <f t="shared" si="19"/>
         <v>4.98044009393036</v>
       </c>
@@ -5496,26 +5500,26 @@
       <c r="D122">
         <v>1.16910758757875</v>
       </c>
-      <c r="E122" s="4">
+      <c r="E122" s="5">
         <v>1.05544353311592e-7</v>
       </c>
       <c r="F122">
         <f t="shared" si="15"/>
         <v>9.58216080402003</v>
       </c>
-      <c r="G122" s="3">
+      <c r="G122" s="4">
         <f t="shared" si="16"/>
         <v>0.00220711931772176</v>
       </c>
-      <c r="H122" s="3">
+      <c r="H122" s="4">
         <f t="shared" si="17"/>
         <v>0.00167979102772169</v>
       </c>
-      <c r="I122" s="3">
+      <c r="I122" s="4">
         <f t="shared" si="18"/>
         <v>0.0194215961954243</v>
       </c>
-      <c r="J122" s="3">
+      <c r="J122" s="4">
         <f t="shared" si="19"/>
         <v>4.99986169012578</v>
       </c>
@@ -5533,26 +5537,26 @@
       <c r="D123">
         <v>1.17425101903677</v>
       </c>
-      <c r="E123" s="4">
+      <c r="E123" s="5">
         <v>1.05268089616242e-7</v>
       </c>
       <c r="F123">
         <f t="shared" si="15"/>
         <v>9.61909547738686</v>
       </c>
-      <c r="G123" s="3">
+      <c r="G123" s="4">
         <f t="shared" si="16"/>
         <v>0.00217474563748051</v>
       </c>
-      <c r="H123" s="3">
+      <c r="H123" s="4">
         <f t="shared" si="17"/>
         <v>0.00156634566411224</v>
       </c>
-      <c r="I123" s="3">
+      <c r="I123" s="4">
         <f t="shared" si="18"/>
         <v>0.018743203354851</v>
       </c>
-      <c r="J123" s="3">
+      <c r="J123" s="4">
         <f t="shared" si="19"/>
         <v>5.01860489348063</v>
       </c>
@@ -5570,26 +5574,26 @@
       <c r="D124">
         <v>1.17947707068199</v>
       </c>
-      <c r="E124" s="4">
+      <c r="E124" s="5">
         <v>1.05005472269645e-7</v>
       </c>
       <c r="F124">
         <f t="shared" si="15"/>
         <v>9.65603015075369</v>
       </c>
-      <c r="G124" s="3">
+      <c r="G124" s="4">
         <f t="shared" si="16"/>
         <v>0.00214431624079681</v>
       </c>
-      <c r="H124" s="3">
+      <c r="H124" s="4">
         <f t="shared" si="17"/>
         <v>0.00145577092325348</v>
       </c>
-      <c r="I124" s="3">
+      <c r="I124" s="4">
         <f t="shared" si="18"/>
         <v>0.0180829838827735</v>
       </c>
-      <c r="J124" s="3">
+      <c r="J124" s="4">
         <f t="shared" si="19"/>
         <v>5.03668787736341</v>
       </c>
@@ -5607,26 +5611,26 @@
       <c r="D125">
         <v>1.18478387079438</v>
       </c>
-      <c r="E125" s="4">
+      <c r="E125" s="5">
         <v>1.04756028757926e-7</v>
       </c>
       <c r="F125">
         <f t="shared" si="15"/>
         <v>9.69296482412053</v>
       </c>
-      <c r="G125" s="3">
+      <c r="G125" s="4">
         <f t="shared" si="16"/>
         <v>0.00211440954186071</v>
       </c>
-      <c r="H125" s="3">
+      <c r="H125" s="4">
         <f t="shared" si="17"/>
         <v>0.00134684107179579</v>
       </c>
-      <c r="I125" s="3">
+      <c r="I125" s="4">
         <f t="shared" si="18"/>
         <v>0.0174280587141117</v>
       </c>
-      <c r="J125" s="3">
+      <c r="J125" s="4">
         <f t="shared" si="19"/>
         <v>5.05411593607752</v>
       </c>
@@ -5644,26 +5648,26 @@
       <c r="D126">
         <v>1.19016970137648</v>
       </c>
-      <c r="E126" s="4">
+      <c r="E126" s="5">
         <v>1.04519320567698e-7</v>
       </c>
       <c r="F126">
         <f t="shared" si="15"/>
         <v>9.72989949748736</v>
       </c>
-      <c r="G126" s="3">
+      <c r="G126" s="4">
         <f t="shared" si="16"/>
         <v>0.00208388967336481</v>
       </c>
-      <c r="H126" s="3">
+      <c r="H126" s="4">
         <f t="shared" si="17"/>
         <v>0.00124102768247011</v>
       </c>
-      <c r="I126" s="3">
+      <c r="I126" s="4">
         <f t="shared" si="18"/>
         <v>0.016780485820476</v>
       </c>
-      <c r="J126" s="3">
+      <c r="J126" s="4">
         <f t="shared" si="19"/>
         <v>5.070896421898</v>
       </c>
@@ -5681,26 +5685,26 @@
       <c r="D127">
         <v>1.19563442758942</v>
       </c>
-      <c r="E127" s="4">
+      <c r="E127" s="5">
         <v>1.0429507264938e-7</v>
       </c>
       <c r="F127">
         <f t="shared" si="15"/>
         <v>9.76683417085419</v>
       </c>
-      <c r="G127" s="3">
+      <c r="G127" s="4">
         <f t="shared" si="16"/>
         <v>0.00205466522722051</v>
       </c>
-      <c r="H127" s="3">
+      <c r="H127" s="4">
         <f t="shared" si="17"/>
         <v>0.00113739036031979</v>
       </c>
-      <c r="I127" s="3">
+      <c r="I127" s="4">
         <f t="shared" si="18"/>
         <v>0.0161455099241185</v>
       </c>
-      <c r="J127" s="3">
+      <c r="J127" s="4">
         <f t="shared" si="19"/>
         <v>5.08704193182211</v>
       </c>
@@ -5718,26 +5722,26 @@
       <c r="D128">
         <v>1.20117693771775</v>
       </c>
-      <c r="E128" s="4">
+      <c r="E128" s="5">
         <v>1.04082949002127e-7</v>
       </c>
       <c r="F128">
         <f t="shared" si="15"/>
         <v>9.80376884422103</v>
       </c>
-      <c r="G128" s="3">
+      <c r="G128" s="4">
         <f t="shared" si="16"/>
         <v>0.00202576368133238</v>
       </c>
-      <c r="H128" s="3">
+      <c r="H128" s="4">
         <f t="shared" si="17"/>
         <v>0.00103600873655054</v>
       </c>
-      <c r="I128" s="3">
+      <c r="I128" s="4">
         <f t="shared" si="18"/>
         <v>0.0155189647478978</v>
       </c>
-      <c r="J128" s="3">
+      <c r="J128" s="4">
         <f t="shared" si="19"/>
         <v>5.10256089657001</v>
       </c>
@@ -5755,26 +5759,26 @@
       <c r="D129">
         <v>1.2067943873554</v>
       </c>
-      <c r="E129" s="4">
+      <c r="E129" s="5">
         <v>1.03882408016137e-7</v>
       </c>
       <c r="F129">
         <f t="shared" si="15"/>
         <v>9.84070351758786</v>
       </c>
-      <c r="G129" s="3">
+      <c r="G129" s="4">
         <f t="shared" si="16"/>
         <v>0.0019960805537522</v>
       </c>
-      <c r="H129" s="3">
+      <c r="H129" s="4">
         <f t="shared" si="17"/>
         <v>0.000936667281952284</v>
       </c>
-      <c r="I129" s="3">
+      <c r="I129" s="4">
         <f t="shared" si="18"/>
         <v>0.0148944845310232</v>
       </c>
-      <c r="J129" s="3">
+      <c r="J129" s="4">
         <f t="shared" si="19"/>
         <v>5.11745538110103</v>
       </c>
@@ -5792,26 +5796,26 @@
       <c r="D130">
         <v>1.21248778347461</v>
       </c>
-      <c r="E130" s="4">
+      <c r="E130" s="5">
         <v>1.03693348588504e-7</v>
       </c>
       <c r="F130">
         <f t="shared" si="15"/>
         <v>9.87763819095469</v>
       </c>
-      <c r="G130" s="3">
+      <c r="G130" s="4">
         <f t="shared" si="16"/>
         <v>0.00196812800408164</v>
       </c>
-      <c r="H130" s="3">
+      <c r="H130" s="4">
         <f t="shared" si="17"/>
         <v>0.000839664494507476</v>
       </c>
-      <c r="I130" s="3">
+      <c r="I130" s="4">
         <f t="shared" si="18"/>
         <v>0.0142866409614754</v>
       </c>
-      <c r="J130" s="3">
+      <c r="J130" s="4">
         <f t="shared" si="19"/>
         <v>5.13174202206251</v>
       </c>
@@ -5829,26 +5833,26 @@
       <c r="D131">
         <v>1.21825467440026</v>
       </c>
-      <c r="E131" s="4">
+      <c r="E131" s="5">
         <v>1.03515299977925e-7</v>
       </c>
       <c r="F131">
         <f t="shared" si="15"/>
         <v>9.91457286432152</v>
       </c>
-      <c r="G131" s="3">
+      <c r="G131" s="4">
         <f t="shared" si="16"/>
         <v>0.00193957246100982</v>
       </c>
-      <c r="H131" s="3">
+      <c r="H131" s="4">
         <f t="shared" si="17"/>
         <v>0.000744628369778104</v>
       </c>
-      <c r="I131" s="3">
+      <c r="I131" s="4">
         <f t="shared" si="18"/>
         <v>0.0136819777226834</v>
       </c>
-      <c r="J131" s="3">
+      <c r="J131" s="4">
         <f t="shared" si="19"/>
         <v>5.14542399978519</v>
       </c>
@@ -5866,26 +5870,26 @@
       <c r="D132">
         <v>1.22409436662374</v>
       </c>
-      <c r="E132" s="4">
+      <c r="E132" s="5">
         <v>1.03347992588518e-7</v>
       </c>
       <c r="F132">
         <f t="shared" ref="F132:F163" si="20">F131+0.0369346733668338</f>
         <v>9.95150753768836</v>
       </c>
-      <c r="G132" s="3">
+      <c r="G132" s="4">
         <f t="shared" ref="G132:G163" si="21">5/2*(1/C132+1/C131)*(C132-C131)</f>
         <v>0.00191153439012917</v>
       </c>
-      <c r="H132" s="3">
+      <c r="H132" s="4">
         <f t="shared" ref="H132:H163" si="22">(1/B132+1/B131)*(B132-B131)</f>
         <v>0.000651683320354401</v>
       </c>
-      <c r="I132" s="3">
+      <c r="I132" s="4">
         <f t="shared" ref="I132:I163" si="23">83140000/2.4942*(G132+H132)/((E131+E132)*31560000000000)</f>
         <v>0.0130871118149389</v>
       </c>
-      <c r="J132" s="3">
+      <c r="J132" s="4">
         <f t="shared" ref="J132:J163" si="24">J131+I132</f>
         <v>5.15851111160013</v>
       </c>
@@ -5903,26 +5907,26 @@
       <c r="D133">
         <v>1.23000568654448</v>
       </c>
-      <c r="E133" s="4">
+      <c r="E133" s="5">
         <v>1.03191110867402e-7</v>
       </c>
       <c r="F133">
         <f t="shared" si="20"/>
         <v>9.98844221105519</v>
       </c>
-      <c r="G133" s="3">
+      <c r="G133" s="4">
         <f t="shared" si="21"/>
         <v>0.00188372603735122</v>
       </c>
-      <c r="H133" s="3">
+      <c r="H133" s="4">
         <f t="shared" si="22"/>
         <v>0.000560657504596478</v>
       </c>
-      <c r="I133" s="3">
+      <c r="I133" s="4">
         <f t="shared" si="23"/>
         <v>0.012499965495214</v>
       </c>
-      <c r="J133" s="3">
+      <c r="J133" s="4">
         <f t="shared" si="24"/>
         <v>5.17101107709535</v>
       </c>
@@ -5940,26 +5944,26 @@
       <c r="D134">
         <v>1.23598777472469</v>
       </c>
-      <c r="E134" s="4">
+      <c r="E134" s="5">
         <v>1.0304438552139e-7</v>
       </c>
       <c r="F134">
         <f t="shared" si="20"/>
         <v>10.025376884422</v>
       </c>
-      <c r="G134" s="3">
+      <c r="G134" s="4">
         <f t="shared" si="21"/>
         <v>0.00185632497691631</v>
       </c>
-      <c r="H134" s="3">
+      <c r="H134" s="4">
         <f t="shared" si="22"/>
         <v>0.000471642683733911</v>
       </c>
-      <c r="I134" s="3">
+      <c r="I134" s="4">
         <f t="shared" si="23"/>
         <v>0.0119221690983543</v>
       </c>
-      <c r="J134" s="3">
+      <c r="J134" s="4">
         <f t="shared" si="24"/>
         <v>5.1829332461937</v>
       </c>
@@ -5977,26 +5981,26 @@
       <c r="D135">
         <v>1.24203996565488</v>
       </c>
-      <c r="E135" s="4">
+      <c r="E135" s="5">
         <v>1.02907570542852e-7</v>
       </c>
       <c r="F135">
         <f t="shared" si="20"/>
         <v>10.0623115577889</v>
       </c>
-      <c r="G135" s="3">
+      <c r="G135" s="4">
         <f t="shared" si="21"/>
         <v>0.00182939164278642</v>
       </c>
-      <c r="H135" s="3">
+      <c r="H135" s="4">
         <f t="shared" si="22"/>
         <v>0.000384546394112315</v>
       </c>
-      <c r="I135" s="3">
+      <c r="I135" s="4">
         <f t="shared" si="23"/>
         <v>0.0113538013512873</v>
       </c>
-      <c r="J135" s="3">
+      <c r="J135" s="4">
         <f t="shared" si="24"/>
         <v>5.19428704754499</v>
       </c>
@@ -6014,26 +6018,26 @@
       <c r="D136">
         <v>1.24816144474178</v>
       </c>
-      <c r="E136" s="4">
+      <c r="E136" s="5">
         <v>1.02780412402691e-7</v>
       </c>
       <c r="F136">
         <f t="shared" si="20"/>
         <v>10.0992462311557</v>
       </c>
-      <c r="G136" s="3">
+      <c r="G136" s="4">
         <f t="shared" si="21"/>
         <v>0.00180283165417471</v>
       </c>
-      <c r="H136" s="3">
+      <c r="H136" s="4">
         <f t="shared" si="22"/>
         <v>0.000299300350009642</v>
       </c>
-      <c r="I136" s="3">
+      <c r="I136" s="4">
         <f t="shared" si="23"/>
         <v>0.0107942585332017</v>
       </c>
-      <c r="J136" s="3">
+      <c r="J136" s="4">
         <f t="shared" si="24"/>
         <v>5.20508130607819</v>
       </c>
@@ -6051,26 +6055,26 @@
       <c r="D137">
         <v>1.25435050234453</v>
       </c>
-      <c r="E137" s="4">
+      <c r="E137" s="5">
         <v>1.02662566365837e-7</v>
       </c>
       <c r="F137">
         <f t="shared" si="20"/>
         <v>10.1361809045225</v>
       </c>
-      <c r="G137" s="3">
+      <c r="G137" s="4">
         <f t="shared" si="21"/>
         <v>0.00177605067216904</v>
       </c>
-      <c r="H137" s="3">
+      <c r="H137" s="4">
         <f t="shared" si="22"/>
         <v>0.000215779432126548</v>
       </c>
-      <c r="I137" s="3">
+      <c r="I137" s="4">
         <f t="shared" si="23"/>
         <v>0.010240065611741</v>
       </c>
-      <c r="J137" s="3">
+      <c r="J137" s="4">
         <f t="shared" si="24"/>
         <v>5.21532137168993</v>
       </c>
@@ -6088,26 +6092,26 @@
       <c r="D138">
         <v>1.26060720323838</v>
       </c>
-      <c r="E138" s="4">
+      <c r="E138" s="5">
         <v>1.02553905645638e-7</v>
       </c>
       <c r="F138">
         <f t="shared" si="20"/>
         <v>10.1731155778894</v>
       </c>
-      <c r="G138" s="3">
+      <c r="G138" s="4">
         <f t="shared" si="21"/>
         <v>0.00175016101337416</v>
       </c>
-      <c r="H138" s="3">
+      <c r="H138" s="4">
         <f t="shared" si="22"/>
         <v>0.000134134851398734</v>
       </c>
-      <c r="I138" s="3">
+      <c r="I138" s="4">
         <f t="shared" si="23"/>
         <v>0.00969792070152845</v>
       </c>
-      <c r="J138" s="3">
+      <c r="J138" s="4">
         <f t="shared" si="24"/>
         <v>5.22501929239146</v>
       </c>
@@ -6125,26 +6129,26 @@
       <c r="D139">
         <v>1.26693003460426</v>
       </c>
-      <c r="E139" s="4">
+      <c r="E139" s="5">
         <v>1.02454104935959e-7</v>
       </c>
       <c r="F139">
         <f t="shared" si="20"/>
         <v>10.2100502512562</v>
       </c>
-      <c r="G139" s="3">
+      <c r="G139" s="4">
         <f t="shared" si="21"/>
         <v>0.00172415626746473</v>
       </c>
-      <c r="H139" s="3">
+      <c r="H139" s="4">
         <f t="shared" si="22"/>
         <v>5.41131387691002e-5</v>
       </c>
-      <c r="I139" s="3">
+      <c r="I139" s="4">
         <f t="shared" si="23"/>
         <v>0.00916153987902692</v>
       </c>
-      <c r="J139" s="3">
+      <c r="J139" s="4">
         <f t="shared" si="24"/>
         <v>5.23418083227049</v>
       </c>
@@ -6162,26 +6166,26 @@
       <c r="D140">
         <v>1.27331849785477</v>
       </c>
-      <c r="E140" s="4">
+      <c r="E140" s="5">
         <v>1.02362981350291e-7</v>
       </c>
       <c r="F140">
         <f t="shared" si="20"/>
         <v>10.246984924623</v>
       </c>
-      <c r="G140" s="3">
+      <c r="G140" s="4">
         <f t="shared" si="21"/>
         <v>0.00169864302204854</v>
       </c>
-      <c r="H140" s="3">
+      <c r="H140" s="4">
         <f t="shared" si="22"/>
         <v>-2.41299707091596e-5</v>
       </c>
-      <c r="I140" s="3">
+      <c r="I140" s="4">
         <f t="shared" si="23"/>
         <v>0.00863503503486658</v>
       </c>
-      <c r="J140" s="3">
+      <c r="J140" s="4">
         <f t="shared" si="24"/>
         <v>5.24281586730535</v>
       </c>
@@ -6199,26 +6203,26 @@
       <c r="D141">
         <v>1.27977193137909</v>
       </c>
-      <c r="E141" s="4">
+      <c r="E141" s="5">
         <v>1.02280319508555e-7</v>
       </c>
       <c r="F141">
         <f t="shared" si="20"/>
         <v>10.2839195979899</v>
       </c>
-      <c r="G141" s="3">
+      <c r="G141" s="4">
         <f t="shared" si="21"/>
         <v>0.0016735257228386</v>
       </c>
-      <c r="H141" s="3">
+      <c r="H141" s="4">
         <f t="shared" si="22"/>
         <v>-0.000100750666611247</v>
       </c>
-      <c r="I141" s="3">
+      <c r="I141" s="4">
         <f t="shared" si="23"/>
         <v>0.00811728568758792</v>
       </c>
-      <c r="J141" s="3">
+      <c r="J141" s="4">
         <f t="shared" si="24"/>
         <v>5.25093315299294</v>
       </c>
@@ -6236,26 +6240,26 @@
       <c r="D142">
         <v>1.28628942202821</v>
       </c>
-      <c r="E142" s="4">
+      <c r="E142" s="5">
         <v>1.02205901259304e-7</v>
       </c>
       <c r="F142">
         <f t="shared" si="20"/>
         <v>10.3208542713567</v>
       </c>
-      <c r="G142" s="3">
+      <c r="G142" s="4">
         <f t="shared" si="21"/>
         <v>0.00164861247969925</v>
       </c>
-      <c r="H142" s="3">
+      <c r="H142" s="4">
         <f t="shared" si="22"/>
         <v>-0.000175761328718063</v>
       </c>
-      <c r="I142" s="3">
+      <c r="I142" s="4">
         <f t="shared" si="23"/>
         <v>0.00760740540282653</v>
       </c>
-      <c r="J142" s="3">
+      <c r="J142" s="4">
         <f t="shared" si="24"/>
         <v>5.25854055839577</v>
       </c>
@@ -6273,26 +6277,26 @@
       <c r="D143">
         <v>1.29287000237844</v>
       </c>
-      <c r="E143" s="4">
+      <c r="E143" s="5">
         <v>1.02139509415192e-7</v>
       </c>
       <c r="F143">
         <f t="shared" si="20"/>
         <v>10.3577889447235</v>
       </c>
-      <c r="G143" s="3">
+      <c r="G143" s="4">
         <f t="shared" si="21"/>
         <v>0.00162380313329545</v>
       </c>
-      <c r="H143" s="3">
+      <c r="H143" s="4">
         <f t="shared" si="22"/>
         <v>-0.000249218992315612</v>
       </c>
-      <c r="I143" s="3">
+      <c r="I143" s="4">
         <f t="shared" si="23"/>
         <v>0.00710474003017359</v>
       </c>
-      <c r="J143" s="3">
+      <c r="J143" s="4">
         <f t="shared" si="24"/>
         <v>5.26564529842594</v>
       </c>
@@ -6310,26 +6314,26 @@
       <c r="D144">
         <v>1.29951258569425</v>
       </c>
-      <c r="E144" s="4">
+      <c r="E144" s="5">
         <v>1.02080901701216e-7</v>
       </c>
       <c r="F144">
         <f t="shared" si="20"/>
         <v>10.3947236180904</v>
       </c>
-      <c r="G144" s="3">
+      <c r="G144" s="4">
         <f t="shared" si="21"/>
         <v>0.00159909493151362</v>
       </c>
-      <c r="H144" s="3">
+      <c r="H144" s="4">
         <f t="shared" si="22"/>
         <v>-0.000321206983193227</v>
       </c>
-      <c r="I144" s="3">
+      <c r="I144" s="4">
         <f t="shared" si="23"/>
         <v>0.00660899432515896</v>
       </c>
-      <c r="J144" s="3">
+      <c r="J144" s="4">
         <f t="shared" si="24"/>
         <v>5.2722542927511</v>
       </c>
@@ -6347,26 +6351,26 @@
       <c r="D145">
         <v>1.30621748169719</v>
       </c>
-      <c r="E145" s="4">
+      <c r="E145" s="5">
         <v>1.02029991520975e-7</v>
       </c>
       <c r="F145">
         <f t="shared" si="20"/>
         <v>10.4316582914572</v>
       </c>
-      <c r="G145" s="3">
+      <c r="G145" s="4">
         <f t="shared" si="21"/>
         <v>0.00157504381901669</v>
       </c>
-      <c r="H145" s="3">
+      <c r="H145" s="4">
         <f t="shared" si="22"/>
         <v>-0.000391279990437269</v>
       </c>
-      <c r="I145" s="3">
+      <c r="I145" s="4">
         <f t="shared" si="23"/>
         <v>0.0061254871466044</v>
       </c>
-      <c r="J145" s="3">
+      <c r="J145" s="4">
         <f t="shared" si="24"/>
         <v>5.2783797798977</v>
       </c>
@@ -6384,26 +6388,26 @@
       <c r="D146">
         <v>1.31298353974782</v>
       </c>
-      <c r="E146" s="4">
+      <c r="E146" s="5">
         <v>1.01986566430827e-7</v>
       </c>
       <c r="F146">
         <f t="shared" si="20"/>
         <v>10.468592964824</v>
       </c>
-      <c r="G146" s="3">
+      <c r="G146" s="4">
         <f t="shared" si="21"/>
         <v>0.00155184367094712</v>
       </c>
-      <c r="H146" s="3">
+      <c r="H146" s="4">
         <f t="shared" si="22"/>
         <v>-0.000460720140391365</v>
       </c>
-      <c r="I146" s="3">
+      <c r="I146" s="4">
         <f t="shared" si="23"/>
         <v>0.00564872271066515</v>
       </c>
-      <c r="J146" s="3">
+      <c r="J146" s="4">
         <f t="shared" si="24"/>
         <v>5.28402850260837</v>
       </c>
@@ -6421,26 +6425,26 @@
       <c r="D147">
         <v>1.31980951542774</v>
       </c>
-      <c r="E147" s="4">
+      <c r="E147" s="5">
         <v>1.01950378614406e-7</v>
       </c>
       <c r="F147">
         <f t="shared" si="20"/>
         <v>10.5055276381909</v>
       </c>
-      <c r="G147" s="3">
+      <c r="G147" s="4">
         <f t="shared" si="21"/>
         <v>0.00152768459939602</v>
       </c>
-      <c r="H147" s="3">
+      <c r="H147" s="4">
         <f t="shared" si="22"/>
         <v>-0.000528045180633588</v>
       </c>
-      <c r="I147" s="3">
+      <c r="I147" s="4">
         <f t="shared" si="23"/>
         <v>0.00517713172004753</v>
       </c>
-      <c r="J147" s="3">
+      <c r="J147" s="4">
         <f t="shared" si="24"/>
         <v>5.28920563432842</v>
       </c>
@@ -6458,26 +6462,26 @@
       <c r="D148">
         <v>1.32669565834566</v>
       </c>
-      <c r="E148" s="4">
+      <c r="E148" s="5">
         <v>1.01921367023317e-7</v>
       </c>
       <c r="F148">
         <f t="shared" si="20"/>
         <v>10.5424623115577</v>
       </c>
-      <c r="G148" s="3">
+      <c r="G148" s="4">
         <f t="shared" si="21"/>
         <v>0.00150470928058968</v>
       </c>
-      <c r="H148" s="3">
+      <c r="H148" s="4">
         <f t="shared" si="22"/>
         <v>-0.000594039640168051</v>
       </c>
-      <c r="I148" s="3">
+      <c r="I148" s="4">
         <f t="shared" si="23"/>
         <v>0.00471786563123443</v>
       </c>
-      <c r="J148" s="3">
+      <c r="J148" s="4">
         <f t="shared" si="24"/>
         <v>5.29392349995965</v>
       </c>
@@ -6495,26 +6499,26 @@
       <c r="D149">
         <v>1.33364054883492</v>
       </c>
-      <c r="E149" s="4">
+      <c r="E149" s="5">
         <v>1.01899249606671e-7</v>
       </c>
       <c r="F149">
         <f t="shared" si="20"/>
         <v>10.5793969849245</v>
       </c>
-      <c r="G149" s="3">
+      <c r="G149" s="4">
         <f t="shared" si="21"/>
         <v>0.00148147581593623</v>
       </c>
-      <c r="H149" s="3">
+      <c r="H149" s="4">
         <f t="shared" si="22"/>
         <v>-0.000658811134266459</v>
       </c>
-      <c r="I149" s="3">
+      <c r="I149" s="4">
         <f t="shared" si="23"/>
         <v>0.00426301138338007</v>
       </c>
-      <c r="J149" s="3">
+      <c r="J149" s="4">
         <f t="shared" si="24"/>
         <v>5.29818651134303</v>
       </c>
@@ -6532,26 +6536,26 @@
       <c r="D150">
         <v>1.34064325754825</v>
       </c>
-      <c r="E150" s="4">
+      <c r="E150" s="5">
         <v>1.01883893657418e-7</v>
       </c>
       <c r="F150">
         <f t="shared" si="20"/>
         <v>10.6163316582914</v>
       </c>
-      <c r="G150" s="3">
+      <c r="G150" s="4">
         <f t="shared" si="21"/>
         <v>0.00145852501686058</v>
       </c>
-      <c r="H150" s="3">
+      <c r="H150" s="4">
         <f t="shared" si="22"/>
         <v>-0.000722294292092729</v>
       </c>
-      <c r="I150" s="3">
+      <c r="I150" s="4">
         <f t="shared" si="23"/>
         <v>0.00381581606132327</v>
       </c>
-      <c r="J150" s="3">
+      <c r="J150" s="4">
         <f t="shared" si="24"/>
         <v>5.30200232740436</v>
       </c>
@@ -6569,26 +6573,26 @@
       <c r="D151">
         <v>1.34770428359341</v>
       </c>
-      <c r="E151" s="4">
+      <c r="E151" s="5">
         <v>1.01875219414497e-7</v>
       </c>
       <c r="F151">
         <f t="shared" si="20"/>
         <v>10.6532663316582</v>
       </c>
-      <c r="G151" s="3">
+      <c r="G151" s="4">
         <f t="shared" si="21"/>
         <v>0.00143617944937763</v>
       </c>
-      <c r="H151" s="3">
+      <c r="H151" s="4">
         <f t="shared" si="22"/>
         <v>-0.00078425529980797</v>
       </c>
-      <c r="I151" s="3">
+      <c r="I151" s="4">
         <f t="shared" si="23"/>
         <v>0.00337926132810903</v>
       </c>
-      <c r="J151" s="3">
+      <c r="J151" s="4">
         <f t="shared" si="24"/>
         <v>5.30538158873246</v>
       </c>
@@ -6606,26 +6610,26 @@
       <c r="D152">
         <v>1.35482236160394</v>
       </c>
-      <c r="E152" s="4">
+      <c r="E152" s="5">
         <v>1.01873026815135e-7</v>
       </c>
       <c r="F152">
         <f t="shared" si="20"/>
         <v>10.690201005025</v>
       </c>
-      <c r="G152" s="3">
+      <c r="G152" s="4">
         <f t="shared" si="21"/>
         <v>0.00141393459286224</v>
       </c>
-      <c r="H152" s="3">
+      <c r="H152" s="4">
         <f t="shared" si="22"/>
         <v>-0.000845023848131871</v>
       </c>
-      <c r="I152" s="3">
+      <c r="I152" s="4">
         <f t="shared" si="23"/>
         <v>0.00294911703432472</v>
       </c>
-      <c r="J152" s="3">
+      <c r="J152" s="4">
         <f t="shared" si="24"/>
         <v>5.30833070576679</v>
       </c>
@@ -6643,26 +6647,26 @@
       <c r="D153">
         <v>1.36199698862019</v>
       </c>
-      <c r="E153" s="4">
+      <c r="E153" s="5">
         <v>1.01877178501715e-7</v>
       </c>
       <c r="F153">
         <f t="shared" si="20"/>
         <v>10.7271356783918</v>
       </c>
-      <c r="G153" s="3">
+      <c r="G153" s="4">
         <f t="shared" si="21"/>
         <v>0.00139193542708696</v>
       </c>
-      <c r="H153" s="3">
+      <c r="H153" s="4">
         <f t="shared" si="22"/>
         <v>-0.000904524042513443</v>
       </c>
-      <c r="I153" s="3">
+      <c r="I153" s="4">
         <f t="shared" si="23"/>
         <v>0.0025266167130063</v>
       </c>
-      <c r="J153" s="3">
+      <c r="J153" s="4">
         <f t="shared" si="24"/>
         <v>5.3108573224798</v>
       </c>
@@ -6680,26 +6684,26 @@
       <c r="D154">
         <v>1.36922751409718</v>
       </c>
-      <c r="E154" s="4">
+      <c r="E154" s="5">
         <v>1.01887529557323e-7</v>
       </c>
       <c r="F154">
         <f t="shared" si="20"/>
         <v>10.7640703517587</v>
       </c>
-      <c r="G154" s="3">
+      <c r="G154" s="4">
         <f t="shared" si="21"/>
         <v>0.00137019393758152</v>
       </c>
-      <c r="H154" s="3">
+      <c r="H154" s="4">
         <f t="shared" si="22"/>
         <v>-0.000962805600223671</v>
       </c>
-      <c r="I154" s="3">
+      <c r="I154" s="4">
         <f t="shared" si="23"/>
         <v>0.00211164727385531</v>
       </c>
-      <c r="J154" s="3">
+      <c r="J154" s="4">
         <f t="shared" si="24"/>
         <v>5.31296896975365</v>
       </c>
@@ -6717,26 +6721,26 @@
       <c r="D155">
         <v>1.37651344212787</v>
       </c>
-      <c r="E155" s="4">
+      <c r="E155" s="5">
         <v>1.01903954354522e-7</v>
       </c>
       <c r="F155">
         <f t="shared" si="20"/>
         <v>10.8010050251255</v>
       </c>
-      <c r="G155" s="3">
+      <c r="G155" s="4">
         <f t="shared" si="21"/>
         <v>0.00134872585088612</v>
       </c>
-      <c r="H155" s="3">
+      <c r="H155" s="4">
         <f t="shared" si="22"/>
         <v>-0.00101986492605702</v>
       </c>
-      <c r="I155" s="3">
+      <c r="I155" s="4">
         <f t="shared" si="23"/>
         <v>0.00170438613610886</v>
       </c>
-      <c r="J155" s="3">
+      <c r="J155" s="4">
         <f t="shared" si="24"/>
         <v>5.31467335588976</v>
       </c>
@@ -6754,26 +6758,26 @@
       <c r="D156">
         <v>1.38385405697524</v>
       </c>
-      <c r="E156" s="4">
+      <c r="E156" s="5">
         <v>1.01926307818787e-7</v>
       </c>
       <c r="F156">
         <f t="shared" si="20"/>
         <v>10.8379396984923</v>
       </c>
-      <c r="G156" s="3">
+      <c r="G156" s="4">
         <f t="shared" si="21"/>
         <v>0.00132747478662107</v>
       </c>
-      <c r="H156" s="3">
+      <c r="H156" s="4">
         <f t="shared" si="22"/>
         <v>-0.00107574388007912</v>
       </c>
-      <c r="I156" s="3">
+      <c r="I156" s="4">
         <f t="shared" si="23"/>
         <v>0.00130439650795643</v>
       </c>
-      <c r="J156" s="3">
+      <c r="J156" s="4">
         <f t="shared" si="24"/>
         <v>5.31597775239772</v>
       </c>
@@ -6791,26 +6795,26 @@
       <c r="D157">
         <v>1.39124859017534</v>
       </c>
-      <c r="E157" s="4">
+      <c r="E157" s="5">
         <v>1.01954441331286e-7</v>
       </c>
       <c r="F157">
         <f t="shared" si="20"/>
         <v>10.8748743718592</v>
       </c>
-      <c r="G157" s="3">
+      <c r="G157" s="4">
         <f t="shared" si="21"/>
         <v>0.00130616003240768</v>
       </c>
-      <c r="H157" s="3">
+      <c r="H157" s="4">
         <f t="shared" si="22"/>
         <v>-0.00113057352589338</v>
       </c>
-      <c r="I157" s="3">
+      <c r="I157" s="4">
         <f t="shared" si="23"/>
         <v>0.000909613020136777</v>
       </c>
-      <c r="J157" s="3">
+      <c r="J157" s="4">
         <f t="shared" si="24"/>
         <v>5.31688736541785</v>
       </c>
@@ -6828,26 +6832,26 @@
       <c r="D158">
         <v>1.3986973715208</v>
       </c>
-      <c r="E158" s="4">
+      <c r="E158" s="5">
         <v>1.01988313826497e-7</v>
       </c>
       <c r="F158">
         <f t="shared" si="20"/>
         <v>10.911809045226</v>
       </c>
-      <c r="G158" s="3">
+      <c r="G158" s="4">
         <f t="shared" si="21"/>
         <v>0.00128590480457182</v>
       </c>
-      <c r="H158" s="3">
+      <c r="H158" s="4">
         <f t="shared" si="22"/>
         <v>-0.0011840239378979</v>
       </c>
-      <c r="I158" s="3">
+      <c r="I158" s="4">
         <f t="shared" si="23"/>
         <v>0.000527625892011159</v>
       </c>
-      <c r="J158" s="3">
+      <c r="J158" s="4">
         <f t="shared" si="24"/>
         <v>5.31741499130986</v>
       </c>
@@ -6865,26 +6869,26 @@
       <c r="D159">
         <v>1.40619822799797</v>
       </c>
-      <c r="E159" s="4">
+      <c r="E159" s="5">
         <v>1.02027662023777e-7</v>
       </c>
       <c r="F159">
         <f t="shared" si="20"/>
         <v>10.9487437185928</v>
       </c>
-      <c r="G159" s="3">
+      <c r="G159" s="4">
         <f t="shared" si="21"/>
         <v>0.00126480566886559</v>
       </c>
-      <c r="H159" s="3">
+      <c r="H159" s="4">
         <f t="shared" si="22"/>
         <v>-0.00123669812688004</v>
       </c>
-      <c r="I159" s="3">
+      <c r="I159" s="4">
         <f t="shared" si="23"/>
         <v>0.000145512546763411</v>
       </c>
-      <c r="J159" s="3">
+      <c r="J159" s="4">
         <f t="shared" si="24"/>
         <v>5.31756050385663</v>
       </c>
@@ -6902,26 +6906,26 @@
       <c r="D160">
         <v>1.41375228562146</v>
       </c>
-      <c r="E160" s="4">
+      <c r="E160" s="5">
         <v>1.02072527562108e-7</v>
       </c>
       <c r="F160">
         <f t="shared" si="20"/>
         <v>10.9856783919597</v>
       </c>
-      <c r="G160" s="3">
+      <c r="G160" s="4">
         <f t="shared" si="21"/>
         <v>0.0012449135812629</v>
       </c>
-      <c r="H160" s="3">
+      <c r="H160" s="4">
         <f t="shared" si="22"/>
         <v>-0.00128795254795751</v>
       </c>
-      <c r="I160" s="3">
+      <c r="I160" s="4">
         <f t="shared" si="23"/>
         <v>-0.000222720492660765</v>
       </c>
-      <c r="J160" s="3">
+      <c r="J160" s="4">
         <f t="shared" si="24"/>
         <v>5.31733778336397</v>
       </c>
@@ -6939,26 +6943,26 @@
       <c r="D161">
         <v>1.42135758837721</v>
       </c>
-      <c r="E161" s="4">
+      <c r="E161" s="5">
         <v>1.02122645938281e-7</v>
       </c>
       <c r="F161">
         <f t="shared" si="20"/>
         <v>11.0226130653265</v>
       </c>
-      <c r="G161" s="3">
+      <c r="G161" s="4">
         <f t="shared" si="21"/>
         <v>0.00122440366794005</v>
       </c>
-      <c r="H161" s="3">
+      <c r="H161" s="4">
         <f t="shared" si="22"/>
         <v>-0.00133842960888708</v>
       </c>
-      <c r="I161" s="3">
+      <c r="I161" s="4">
         <f t="shared" si="23"/>
         <v>-0.000589793446949418</v>
       </c>
-      <c r="J161" s="3">
+      <c r="J161" s="4">
         <f t="shared" si="24"/>
         <v>5.31674798991702</v>
       </c>
@@ -6976,26 +6980,26 @@
       <c r="D162">
         <v>1.42901487055248</v>
       </c>
-      <c r="E162" s="4">
+      <c r="E162" s="5">
         <v>1.02178037846136e-7</v>
       </c>
       <c r="F162">
         <f t="shared" si="20"/>
         <v>11.0595477386933</v>
       </c>
-      <c r="G162" s="3">
+      <c r="G162" s="4">
         <f t="shared" si="21"/>
         <v>0.00120484950846129</v>
       </c>
-      <c r="H162" s="3">
+      <c r="H162" s="4">
         <f t="shared" si="22"/>
         <v>-0.00138765306429416</v>
       </c>
-      <c r="I162" s="3">
+      <c r="I162" s="4">
         <f t="shared" si="23"/>
         <v>-0.000945053880636307</v>
       </c>
-      <c r="J162" s="3">
+      <c r="J162" s="4">
         <f t="shared" si="24"/>
         <v>5.31580293603638</v>
       </c>
@@ -7013,26 +7017,26 @@
       <c r="D163">
         <v>1.4367227840911</v>
       </c>
-      <c r="E163" s="4">
+      <c r="E163" s="5">
         <v>1.02238522067728e-7</v>
       </c>
       <c r="F163">
         <f t="shared" si="20"/>
         <v>11.0964824120602</v>
       </c>
-      <c r="G163" s="3">
+      <c r="G163" s="4">
         <f t="shared" si="21"/>
         <v>0.00118508294795895</v>
       </c>
-      <c r="H163" s="3">
+      <c r="H163" s="4">
         <f t="shared" si="22"/>
         <v>-0.00143595435748335</v>
       </c>
-      <c r="I163" s="3">
+      <c r="I163" s="4">
         <f t="shared" si="23"/>
         <v>-0.00129621441031777</v>
       </c>
-      <c r="J163" s="3">
+      <c r="J163" s="4">
         <f t="shared" si="24"/>
         <v>5.31450672162606</v>
       </c>
@@ -7050,27 +7054,27 @@
       <c r="D164">
         <v>1.44448096101946</v>
       </c>
-      <c r="E164" s="4">
+      <c r="E164" s="5">
         <v>1.02303997131102e-7</v>
       </c>
       <c r="F164">
-        <f t="shared" ref="F164:F195" si="25">F163+0.0369346733668338</f>
+        <f t="shared" ref="F164:F201" si="25">F163+0.0369346733668338</f>
         <v>11.133417085427</v>
       </c>
-      <c r="G164" s="3">
-        <f t="shared" ref="G164:G195" si="26">5/2*(1/C164+1/C163)*(C164-C163)</f>
+      <c r="G164" s="4">
+        <f t="shared" ref="G164:G201" si="26">5/2*(1/C164+1/C163)*(C164-C163)</f>
         <v>0.00116549349135606</v>
       </c>
-      <c r="H164" s="3">
-        <f t="shared" ref="H164:H195" si="27">(1/B164+1/B163)*(B164-B163)</f>
+      <c r="H164" s="4">
+        <f t="shared" ref="H164:H201" si="27">(1/B164+1/B163)*(B164-B163)</f>
         <v>-0.00148326188908331</v>
       </c>
-      <c r="I164" s="3">
-        <f t="shared" ref="I164:I195" si="28">83140000/2.4942*(G164+H164)/((E163+E164)*31560000000000)</f>
+      <c r="I164" s="4">
+        <f t="shared" ref="I164:I201" si="28">83140000/2.4942*(G164+H164)/((E163+E164)*31560000000000)</f>
         <v>-0.00164084989790208</v>
       </c>
-      <c r="J164" s="3">
-        <f t="shared" ref="J164:J195" si="29">J163+I164</f>
+      <c r="J164" s="4">
+        <f t="shared" ref="J164:J201" si="29">J163+I164</f>
         <v>5.31286587172816</v>
       </c>
     </row>
@@ -7087,26 +7091,26 @@
       <c r="D165">
         <v>1.45228993440679</v>
       </c>
-      <c r="E165" s="4">
+      <c r="E165" s="5">
         <v>1.0237447917492e-7</v>
       </c>
       <c r="F165">
         <f t="shared" si="25"/>
         <v>11.1703517587938</v>
       </c>
-      <c r="G165" s="3">
+      <c r="G165" s="4">
         <f t="shared" si="26"/>
         <v>0.00114697603764405</v>
       </c>
-      <c r="H165" s="3">
+      <c r="H165" s="4">
         <f t="shared" si="27"/>
         <v>-0.00152935671808249</v>
       </c>
-      <c r="I165" s="3">
+      <c r="I165" s="4">
         <f t="shared" si="28"/>
         <v>-0.00197317460382556</v>
       </c>
-      <c r="J165" s="3">
+      <c r="J165" s="4">
         <f t="shared" si="29"/>
         <v>5.31089269712433</v>
       </c>
@@ -7124,26 +7128,26 @@
       <c r="D166">
         <v>1.4601476556836</v>
       </c>
-      <c r="E166" s="4">
+      <c r="E166" s="5">
         <v>1.0244971515479e-7</v>
       </c>
       <c r="F166">
         <f t="shared" si="25"/>
         <v>11.2072864321607</v>
       </c>
-      <c r="G166" s="3">
+      <c r="G166" s="4">
         <f t="shared" si="26"/>
         <v>0.00112765212801125</v>
       </c>
-      <c r="H166" s="3">
+      <c r="H166" s="4">
         <f t="shared" si="27"/>
         <v>-0.00157483113553696</v>
       </c>
-      <c r="I166" s="3">
+      <c r="I166" s="4">
         <f t="shared" si="28"/>
         <v>-0.00230590761344712</v>
       </c>
-      <c r="J166" s="3">
+      <c r="J166" s="4">
         <f t="shared" si="29"/>
         <v>5.30858678951089</v>
       </c>
@@ -7161,26 +7165,26 @@
       <c r="D167">
         <v>1.46805417646806</v>
       </c>
-      <c r="E167" s="4">
+      <c r="E167" s="5">
         <v>1.02529659752481e-7</v>
       </c>
       <c r="F167">
         <f t="shared" si="25"/>
         <v>11.2442211055275</v>
       </c>
-      <c r="G167" s="3">
+      <c r="G167" s="4">
         <f t="shared" si="26"/>
         <v>0.00110880067474657</v>
       </c>
-      <c r="H167" s="3">
+      <c r="H167" s="4">
         <f t="shared" si="27"/>
         <v>-0.00161924765707173</v>
       </c>
-      <c r="I167" s="3">
+      <c r="I167" s="4">
         <f t="shared" si="28"/>
         <v>-0.0026301603535912</v>
       </c>
-      <c r="J167" s="3">
+      <c r="J167" s="4">
         <f t="shared" si="29"/>
         <v>5.3059566291573</v>
       </c>
@@ -7198,26 +7202,26 @@
       <c r="D168">
         <v>1.47600898664579</v>
       </c>
-      <c r="E168" s="4">
+      <c r="E168" s="5">
         <v>1.02614231008311e-7</v>
       </c>
       <c r="F168">
         <f t="shared" si="25"/>
         <v>11.2811557788943</v>
       </c>
-      <c r="G168" s="3">
+      <c r="G168" s="4">
         <f t="shared" si="26"/>
         <v>0.0010904152493554</v>
       </c>
-      <c r="H168" s="3">
+      <c r="H168" s="4">
         <f t="shared" si="27"/>
         <v>-0.00166271593131492</v>
       </c>
-      <c r="I168" s="3">
+      <c r="I168" s="4">
         <f t="shared" si="28"/>
         <v>-0.00294650665321942</v>
       </c>
-      <c r="J168" s="3">
+      <c r="J168" s="4">
         <f t="shared" si="29"/>
         <v>5.30301012250408</v>
       </c>
@@ -7235,26 +7239,26 @@
       <c r="D169">
         <v>1.48401210060679</v>
       </c>
-      <c r="E169" s="4">
+      <c r="E169" s="5">
         <v>1.02703369219406e-7</v>
       </c>
       <c r="F169">
         <f t="shared" si="25"/>
         <v>11.3180904522612</v>
       </c>
-      <c r="G169" s="3">
+      <c r="G169" s="4">
         <f t="shared" si="26"/>
         <v>0.00107214977427168</v>
       </c>
-      <c r="H169" s="3">
+      <c r="H169" s="4">
         <f t="shared" si="27"/>
         <v>-0.00170521451916762</v>
       </c>
-      <c r="I169" s="3">
+      <c r="I169" s="4">
         <f t="shared" si="28"/>
         <v>-0.00325659460988158</v>
       </c>
-      <c r="J169" s="3">
+      <c r="J169" s="4">
         <f t="shared" si="29"/>
         <v>5.29975352789419</v>
       </c>
@@ -7272,26 +7276,26 @@
       <c r="D170">
         <v>1.49206269319706</v>
       </c>
-      <c r="E170" s="4">
+      <c r="E170" s="5">
         <v>1.02796969698775e-7</v>
       </c>
       <c r="F170">
         <f t="shared" si="25"/>
         <v>11.355025125628</v>
       </c>
-      <c r="G170" s="3">
+      <c r="G170" s="4">
         <f t="shared" si="26"/>
         <v>0.00105406582644973</v>
       </c>
-      <c r="H170" s="3">
+      <c r="H170" s="4">
         <f t="shared" si="27"/>
         <v>-0.00174686957989679</v>
       </c>
-      <c r="I170" s="3">
+      <c r="I170" s="4">
         <f t="shared" si="28"/>
         <v>-0.00356073325156956</v>
       </c>
-      <c r="J170" s="3">
+      <c r="J170" s="4">
         <f t="shared" si="29"/>
         <v>5.29619279464263</v>
       </c>
@@ -7309,26 +7313,26 @@
       <c r="D171">
         <v>1.50015976773415</v>
       </c>
-      <c r="E171" s="4">
+      <c r="E171" s="5">
         <v>1.02894866886317e-7</v>
       </c>
       <c r="F171">
         <f t="shared" si="25"/>
         <v>11.3919597989948</v>
       </c>
-      <c r="G171" s="3">
+      <c r="G171" s="4">
         <f t="shared" si="26"/>
         <v>0.00103585446637413</v>
       </c>
-      <c r="H171" s="3">
+      <c r="H171" s="4">
         <f t="shared" si="27"/>
         <v>-0.00178777956372488</v>
       </c>
-      <c r="I171" s="3">
+      <c r="I171" s="4">
         <f t="shared" si="28"/>
         <v>-0.00386099532284111</v>
       </c>
-      <c r="J171" s="3">
+      <c r="J171" s="4">
         <f t="shared" si="29"/>
         <v>5.29233179931978</v>
       </c>
@@ -7346,26 +7350,26 @@
       <c r="D172">
         <v>1.50830408642494</v>
       </c>
-      <c r="E172" s="4">
+      <c r="E172" s="5">
         <v>1.02997150725922e-7</v>
       </c>
       <c r="F172">
         <f t="shared" si="25"/>
         <v>11.4288944723617</v>
       </c>
-      <c r="G172" s="3">
+      <c r="G172" s="4">
         <f t="shared" si="26"/>
         <v>0.00101863534405998</v>
       </c>
-      <c r="H172" s="3">
+      <c r="H172" s="4">
         <f t="shared" si="27"/>
         <v>-0.00182756022682271</v>
       </c>
-      <c r="I172" s="3">
+      <c r="I172" s="4">
         <f t="shared" si="28"/>
         <v>-0.00414964013954546</v>
       </c>
-      <c r="J172" s="3">
+      <c r="J172" s="4">
         <f t="shared" si="29"/>
         <v>5.28818215918024</v>
       </c>
@@ -7383,26 +7387,26 @@
       <c r="D173">
         <v>1.51649370002065</v>
       </c>
-      <c r="E173" s="4">
+      <c r="E173" s="5">
         <v>1.03103549306796e-7</v>
       </c>
       <c r="F173">
         <f t="shared" si="25"/>
         <v>11.4658291457285</v>
       </c>
-      <c r="G173" s="3">
+      <c r="G173" s="4">
         <f t="shared" si="26"/>
         <v>0.00100063521217249</v>
       </c>
-      <c r="H173" s="3">
+      <c r="H173" s="4">
         <f t="shared" si="27"/>
         <v>-0.00186685149024047</v>
       </c>
-      <c r="I173" s="3">
+      <c r="I173" s="4">
         <f t="shared" si="28"/>
         <v>-0.00443903556603473</v>
       </c>
-      <c r="J173" s="3">
+      <c r="J173" s="4">
         <f t="shared" si="29"/>
         <v>5.2837431236142</v>
       </c>
@@ -7420,26 +7424,26 @@
       <c r="D174">
         <v>1.52472997396193</v>
       </c>
-      <c r="E174" s="4">
+      <c r="E174" s="5">
         <v>1.0321416516147e-7</v>
       </c>
       <c r="F174">
         <f t="shared" si="25"/>
         <v>11.5027638190953</v>
       </c>
-      <c r="G174" s="3">
+      <c r="G174" s="4">
         <f t="shared" si="26"/>
         <v>0.000983607607200284</v>
       </c>
-      <c r="H174" s="3">
+      <c r="H174" s="4">
         <f t="shared" si="27"/>
         <v>-0.00190494397656454</v>
       </c>
-      <c r="I174" s="3">
+      <c r="I174" s="4">
         <f t="shared" si="28"/>
         <v>-0.00471653919333934</v>
       </c>
-      <c r="J174" s="3">
+      <c r="J174" s="4">
         <f t="shared" si="29"/>
         <v>5.27902658442086</v>
       </c>
@@ -7457,26 +7461,26 @@
       <c r="D175">
         <v>1.53301022448683</v>
       </c>
-      <c r="E175" s="4">
+      <c r="E175" s="5">
         <v>1.03328764295526e-7</v>
       </c>
       <c r="F175">
         <f t="shared" si="25"/>
         <v>11.5396984924622</v>
       </c>
-      <c r="G175" s="3">
+      <c r="G175" s="4">
         <f t="shared" si="26"/>
         <v>0.000966724302125902</v>
       </c>
-      <c r="H175" s="3">
+      <c r="H175" s="4">
         <f t="shared" si="27"/>
         <v>-0.00194250741950608</v>
       </c>
-      <c r="I175" s="3">
+      <c r="I175" s="4">
         <f t="shared" si="28"/>
         <v>-0.00498981814711351</v>
       </c>
-      <c r="J175" s="3">
+      <c r="J175" s="4">
         <f t="shared" si="29"/>
         <v>5.27403676627375</v>
       </c>
@@ -7494,26 +7498,26 @@
       <c r="D176">
         <v>1.54133491977887</v>
       </c>
-      <c r="E176" s="4">
+      <c r="E176" s="5">
         <v>1.03447314934871e-7</v>
       </c>
       <c r="F176">
         <f t="shared" si="25"/>
         <v>11.576633165829</v>
       </c>
-      <c r="G176" s="3">
+      <c r="G176" s="4">
         <f t="shared" si="26"/>
         <v>0.000949175900945263</v>
       </c>
-      <c r="H176" s="3">
+      <c r="H176" s="4">
         <f t="shared" si="27"/>
         <v>-0.00197937390995922</v>
       </c>
-      <c r="I176" s="3">
+      <c r="I176" s="4">
         <f t="shared" si="28"/>
         <v>-0.00526213712067675</v>
       </c>
-      <c r="J176" s="3">
+      <c r="J176" s="4">
         <f t="shared" si="29"/>
         <v>5.26877462915307</v>
       </c>
@@ -7531,26 +7535,26 @@
       <c r="D177">
         <v>1.54970483762472</v>
       </c>
-      <c r="E177" s="4">
+      <c r="E177" s="5">
         <v>1.03569834668349e-7</v>
       </c>
       <c r="F177">
         <f t="shared" si="25"/>
         <v>11.6135678391958</v>
       </c>
-      <c r="G177" s="3">
+      <c r="G177" s="4">
         <f t="shared" si="26"/>
         <v>0.000933091497963629</v>
       </c>
-      <c r="H177" s="3">
+      <c r="H177" s="4">
         <f t="shared" si="27"/>
         <v>-0.0020150243353465</v>
       </c>
-      <c r="I177" s="3">
+      <c r="I177" s="4">
         <f t="shared" si="28"/>
         <v>-0.00551995742835476</v>
       </c>
-      <c r="J177" s="3">
+      <c r="J177" s="4">
         <f t="shared" si="29"/>
         <v>5.26325467172472</v>
       </c>
@@ -7568,26 +7572,26 @@
       <c r="D178">
         <v>1.55811912908277</v>
       </c>
-      <c r="E178" s="4">
+      <c r="E178" s="5">
         <v>1.03696257215582e-7</v>
       </c>
       <c r="F178">
         <f t="shared" si="25"/>
         <v>11.6505025125627</v>
       </c>
-      <c r="G178" s="3">
+      <c r="G178" s="4">
         <f t="shared" si="26"/>
         <v>0.000916919826899381</v>
       </c>
-      <c r="H178" s="3">
+      <c r="H178" s="4">
         <f t="shared" si="27"/>
         <v>-0.00205004644767493</v>
       </c>
-      <c r="I178" s="3">
+      <c r="I178" s="4">
         <f t="shared" si="28"/>
         <v>-0.0057742014940108</v>
       </c>
-      <c r="J178" s="3">
+      <c r="J178" s="4">
         <f t="shared" si="29"/>
         <v>5.25748047023071</v>
       </c>
@@ -7605,26 +7609,26 @@
       <c r="D179">
         <v>1.56657501261063</v>
       </c>
-      <c r="E179" s="4">
+      <c r="E179" s="5">
         <v>1.03826300660334e-7</v>
       </c>
       <c r="F179">
         <f t="shared" si="25"/>
         <v>11.6874371859295</v>
       </c>
-      <c r="G179" s="3">
+      <c r="G179" s="4">
         <f t="shared" si="26"/>
         <v>0.000899498246780578</v>
       </c>
-      <c r="H179" s="3">
+      <c r="H179" s="4">
         <f t="shared" si="27"/>
         <v>-0.00208488798167437</v>
       </c>
-      <c r="I179" s="3">
+      <c r="I179" s="4">
         <f t="shared" si="28"/>
         <v>-0.00603305939619779</v>
       </c>
-      <c r="J179" s="3">
+      <c r="J179" s="4">
         <f t="shared" si="29"/>
         <v>5.25144741083451</v>
       </c>
@@ -7642,26 +7646,26 @@
       <c r="D180">
         <v>1.575075031519</v>
       </c>
-      <c r="E180" s="4">
+      <c r="E180" s="5">
         <v>1.03960144806836e-7</v>
       </c>
       <c r="F180">
         <f t="shared" si="25"/>
         <v>11.7243718592963</v>
       </c>
-      <c r="G180" s="3">
+      <c r="G180" s="4">
         <f t="shared" si="26"/>
         <v>0.000884145548085984</v>
       </c>
-      <c r="H180" s="3">
+      <c r="H180" s="4">
         <f t="shared" si="27"/>
         <v>-0.00211823095440794</v>
       </c>
-      <c r="I180" s="3">
+      <c r="I180" s="4">
         <f t="shared" si="28"/>
         <v>-0.00627292006656476</v>
       </c>
-      <c r="J180" s="3">
+      <c r="J180" s="4">
         <f t="shared" si="29"/>
         <v>5.24517449076795</v>
       </c>
@@ -7679,26 +7683,26 @@
       <c r="D181">
         <v>1.58361716312458</v>
       </c>
-      <c r="E181" s="4">
+      <c r="E181" s="5">
         <v>1.04097602630358e-7</v>
       </c>
       <c r="F181">
         <f t="shared" si="25"/>
         <v>11.7613065326632</v>
       </c>
-      <c r="G181" s="3">
+      <c r="G181" s="4">
         <f t="shared" si="26"/>
         <v>0.00086780431027058</v>
       </c>
-      <c r="H181" s="3">
+      <c r="H181" s="4">
         <f t="shared" si="27"/>
         <v>-0.00215133480424701</v>
       </c>
-      <c r="I181" s="3">
+      <c r="I181" s="4">
         <f t="shared" si="28"/>
         <v>-0.00651574455179376</v>
       </c>
-      <c r="J181" s="3">
+      <c r="J181" s="4">
         <f t="shared" si="29"/>
         <v>5.23865874621615</v>
       </c>
@@ -7716,26 +7720,26 @@
       <c r="D182">
         <v>1.59220129621396</v>
       </c>
-      <c r="E182" s="4">
+      <c r="E182" s="5">
         <v>1.04238632376081e-7</v>
       </c>
       <c r="F182">
         <f t="shared" si="25"/>
         <v>11.79824120603</v>
       </c>
-      <c r="G182" s="3">
+      <c r="G182" s="4">
         <f t="shared" si="26"/>
         <v>0.000852166796214946</v>
       </c>
-      <c r="H182" s="3">
+      <c r="H182" s="4">
         <f t="shared" si="27"/>
         <v>-0.00218355206112227</v>
       </c>
-      <c r="I182" s="3">
+      <c r="I182" s="4">
         <f t="shared" si="28"/>
         <v>-0.0067496411740962</v>
       </c>
-      <c r="J182" s="3">
+      <c r="J182" s="4">
         <f t="shared" si="29"/>
         <v>5.23190910504206</v>
       </c>
@@ -7753,26 +7757,26 @@
       <c r="D183">
         <v>1.60082708097496</v>
       </c>
-      <c r="E183" s="4">
+      <c r="E183" s="5">
         <v>1.04383167769742e-7</v>
       </c>
       <c r="F183">
         <f t="shared" si="25"/>
         <v>11.8351758793968</v>
       </c>
-      <c r="G183" s="3">
+      <c r="G183" s="4">
         <f t="shared" si="26"/>
         <v>0.000836624831961411</v>
       </c>
-      <c r="H183" s="3">
+      <c r="H183" s="4">
         <f t="shared" si="27"/>
         <v>-0.00221505171226962</v>
       </c>
-      <c r="I183" s="3">
+      <c r="I183" s="4">
         <f t="shared" si="28"/>
         <v>-0.00697855966263525</v>
       </c>
-      <c r="J183" s="3">
+      <c r="J183" s="4">
         <f t="shared" si="29"/>
         <v>5.22493054537942</v>
       </c>
@@ -7790,26 +7794,26 @@
       <c r="D184">
         <v>1.60949393931907</v>
       </c>
-      <c r="E184" s="4">
+      <c r="E184" s="5">
         <v>1.04531172561733e-7</v>
       </c>
       <c r="F184">
         <f t="shared" si="25"/>
         <v>11.8721105527637</v>
       </c>
-      <c r="G184" s="3">
+      <c r="G184" s="4">
         <f t="shared" si="26"/>
         <v>0.00082113666399652</v>
       </c>
-      <c r="H184" s="3">
+      <c r="H184" s="4">
         <f t="shared" si="27"/>
         <v>-0.002245965917383</v>
       </c>
-      <c r="I184" s="3">
+      <c r="I184" s="4">
         <f t="shared" si="28"/>
         <v>-0.0072033799372656</v>
       </c>
-      <c r="J184" s="3">
+      <c r="J184" s="4">
         <f t="shared" si="29"/>
         <v>5.21772716544216</v>
       </c>
@@ -7827,26 +7831,26 @@
       <c r="D185">
         <v>1.61820164498069</v>
       </c>
-      <c r="E185" s="4">
+      <c r="E185" s="5">
         <v>1.04682564374656e-7</v>
       </c>
       <c r="F185">
         <f t="shared" si="25"/>
         <v>11.9090452261305</v>
       </c>
-      <c r="G185" s="3">
+      <c r="G185" s="4">
         <f t="shared" si="26"/>
         <v>0.000805989224824556</v>
       </c>
-      <c r="H185" s="3">
+      <c r="H185" s="4">
         <f t="shared" si="27"/>
         <v>-0.00227612128151319</v>
       </c>
-      <c r="I185" s="3">
+      <c r="I185" s="4">
         <f t="shared" si="28"/>
         <v>-0.00742177700755658</v>
       </c>
-      <c r="J185" s="3">
+      <c r="J185" s="4">
         <f t="shared" si="29"/>
         <v>5.2103053884346</v>
       </c>
@@ -7864,26 +7868,26 @@
       <c r="D186">
         <v>1.62695009515638</v>
       </c>
-      <c r="E186" s="4">
+      <c r="E186" s="5">
         <v>1.04837325831265e-7</v>
       </c>
       <c r="F186">
         <f t="shared" si="25"/>
         <v>11.9459798994973</v>
       </c>
-      <c r="G186" s="3">
+      <c r="G186" s="4">
         <f t="shared" si="26"/>
         <v>0.000791168252671002</v>
       </c>
-      <c r="H186" s="3">
+      <c r="H186" s="4">
         <f t="shared" si="27"/>
         <v>-0.00230556882677664</v>
       </c>
-      <c r="I186" s="3">
+      <c r="I186" s="4">
         <f t="shared" si="28"/>
         <v>-0.00763408969880147</v>
       </c>
-      <c r="J186" s="3">
+      <c r="J186" s="4">
         <f t="shared" si="29"/>
         <v>5.2026712987358</v>
       </c>
@@ -7901,26 +7905,26 @@
       <c r="D187">
         <v>1.63573808618544</v>
       </c>
-      <c r="E187" s="4">
+      <c r="E187" s="5">
         <v>1.04995360993532e-7</v>
       </c>
       <c r="F187">
         <f t="shared" si="25"/>
         <v>11.9829145728642</v>
       </c>
-      <c r="G187" s="3">
+      <c r="G187" s="4">
         <f t="shared" si="26"/>
         <v>0.000776062999109292</v>
       </c>
-      <c r="H187" s="3">
+      <c r="H187" s="4">
         <f t="shared" si="27"/>
         <v>-0.00233453675960928</v>
       </c>
-      <c r="I187" s="3">
+      <c r="I187" s="4">
         <f t="shared" si="28"/>
         <v>-0.00784455123245376</v>
       </c>
-      <c r="J187" s="3">
+      <c r="J187" s="4">
         <f t="shared" si="29"/>
         <v>5.19482674750334</v>
       </c>
@@ -7938,26 +7942,26 @@
       <c r="D188">
         <v>1.64456518449755</v>
       </c>
-      <c r="E188" s="4">
+      <c r="E188" s="5">
         <v>1.05156568136689e-7</v>
       </c>
       <c r="F188">
         <f t="shared" si="25"/>
         <v>12.019849246231</v>
       </c>
-      <c r="G188" s="3">
+      <c r="G188" s="4">
         <f t="shared" si="26"/>
         <v>0.000761090806461871</v>
       </c>
-      <c r="H188" s="3">
+      <c r="H188" s="4">
         <f t="shared" si="27"/>
         <v>-0.00236292150759514</v>
       </c>
-      <c r="I188" s="3">
+      <c r="I188" s="4">
         <f t="shared" si="28"/>
         <v>-0.00805053945724575</v>
       </c>
-      <c r="J188" s="3">
+      <c r="J188" s="4">
         <f t="shared" si="29"/>
         <v>5.1867762080461</v>
       </c>
@@ -7975,26 +7979,26 @@
       <c r="D189">
         <v>1.65343149569635</v>
       </c>
-      <c r="E189" s="4">
+      <c r="E189" s="5">
         <v>1.05320977295268e-7</v>
       </c>
       <c r="F189">
         <f t="shared" si="25"/>
         <v>12.0567839195978</v>
       </c>
-      <c r="G189" s="3">
+      <c r="G189" s="4">
         <f t="shared" si="26"/>
         <v>0.000746683462556489</v>
       </c>
-      <c r="H189" s="3">
+      <c r="H189" s="4">
         <f t="shared" si="27"/>
         <v>-0.00239050681263517</v>
       </c>
-      <c r="I189" s="3">
+      <c r="I189" s="4">
         <f t="shared" si="28"/>
         <v>-0.00824880667965781</v>
       </c>
-      <c r="J189" s="3">
+      <c r="J189" s="4">
         <f t="shared" si="29"/>
         <v>5.17852740136644</v>
       </c>
@@ -8012,26 +8016,26 @@
       <c r="D190">
         <v>1.66233658404996</v>
       </c>
-      <c r="E190" s="4">
+      <c r="E190" s="5">
         <v>1.0548852264381e-7</v>
       </c>
       <c r="F190">
         <f t="shared" si="25"/>
         <v>12.0937185929647</v>
       </c>
-      <c r="G190" s="3">
+      <c r="G190" s="4">
         <f t="shared" si="26"/>
         <v>0.000732485684716178</v>
       </c>
-      <c r="H190" s="3">
+      <c r="H190" s="4">
         <f t="shared" si="27"/>
         <v>-0.00241747362658251</v>
       </c>
-      <c r="I190" s="3">
+      <c r="I190" s="4">
         <f t="shared" si="28"/>
         <v>-0.00844205874642797</v>
       </c>
-      <c r="J190" s="3">
+      <c r="J190" s="4">
         <f t="shared" si="29"/>
         <v>5.17008534262001</v>
       </c>
@@ -8049,26 +8053,26 @@
       <c r="D191">
         <v>1.67127967410667</v>
       </c>
-      <c r="E191" s="4">
+      <c r="E191" s="5">
         <v>1.05659103166069e-7</v>
       </c>
       <c r="F191">
         <f t="shared" si="25"/>
         <v>12.1306532663315</v>
       </c>
-      <c r="G191" s="3">
+      <c r="G191" s="4">
         <f t="shared" si="26"/>
         <v>0.000717650168576621</v>
       </c>
-      <c r="H191" s="3">
+      <c r="H191" s="4">
         <f t="shared" si="27"/>
         <v>-0.0024440867717203</v>
       </c>
-      <c r="I191" s="3">
+      <c r="I191" s="4">
         <f t="shared" si="28"/>
         <v>-0.00863587173692902</v>
       </c>
-      <c r="J191" s="3">
+      <c r="J191" s="4">
         <f t="shared" si="29"/>
         <v>5.16144947088308</v>
       </c>
@@ -8086,26 +8090,26 @@
       <c r="D192">
         <v>1.68026107958702</v>
       </c>
-      <c r="E192" s="4">
+      <c r="E192" s="5">
         <v>1.05832763658883e-7</v>
       </c>
       <c r="F192">
         <f t="shared" si="25"/>
         <v>12.1675879396983</v>
       </c>
-      <c r="G192" s="3">
+      <c r="G192" s="4">
         <f t="shared" si="26"/>
         <v>0.000704268369436377</v>
       </c>
-      <c r="H192" s="3">
+      <c r="H192" s="4">
         <f t="shared" si="27"/>
         <v>-0.00246969759669958</v>
       </c>
-      <c r="I192" s="3">
+      <c r="I192" s="4">
         <f t="shared" si="28"/>
         <v>-0.00881654426344573</v>
       </c>
-      <c r="J192" s="3">
+      <c r="J192" s="4">
         <f t="shared" si="29"/>
         <v>5.15263292661964</v>
       </c>
@@ -8123,26 +8127,26 @@
       <c r="D193">
         <v>1.68927979237167</v>
       </c>
-      <c r="E193" s="4">
+      <c r="E193" s="5">
         <v>1.0600939919387e-7</v>
       </c>
       <c r="F193">
         <f t="shared" si="25"/>
         <v>12.2045226130652</v>
       </c>
-      <c r="G193" s="3">
+      <c r="G193" s="4">
         <f t="shared" si="26"/>
         <v>0.000690734670103734</v>
       </c>
-      <c r="H193" s="3">
+      <c r="H193" s="4">
         <f t="shared" si="27"/>
         <v>-0.00249486227041272</v>
       </c>
-      <c r="I193" s="3">
+      <c r="I193" s="4">
         <f t="shared" si="28"/>
         <v>-0.00899490538570772</v>
       </c>
-      <c r="J193" s="3">
+      <c r="J193" s="4">
         <f t="shared" si="29"/>
         <v>5.14363802123393</v>
       </c>
@@ -8160,26 +8164,26 @@
       <c r="D194">
         <v>1.69833427711225</v>
       </c>
-      <c r="E194" s="4">
+      <c r="E194" s="5">
         <v>1.0618884787852e-7</v>
       </c>
       <c r="F194">
         <f t="shared" si="25"/>
         <v>12.241457286432</v>
       </c>
-      <c r="G194" s="3">
+      <c r="G194" s="4">
         <f t="shared" si="26"/>
         <v>0.000675489926166118</v>
       </c>
-      <c r="H194" s="3">
+      <c r="H194" s="4">
         <f t="shared" si="27"/>
         <v>-0.00251982188696491</v>
       </c>
-      <c r="I194" s="3">
+      <c r="I194" s="4">
         <f t="shared" si="28"/>
         <v>-0.00917992326779548</v>
       </c>
-      <c r="J194" s="3">
+      <c r="J194" s="4">
         <f t="shared" si="29"/>
         <v>5.13445809796613</v>
       </c>
@@ -8197,26 +8201,26 @@
       <c r="D195">
         <v>1.70742658276496</v>
       </c>
-      <c r="E195" s="4">
+      <c r="E195" s="5">
         <v>1.0637129001849e-7</v>
       </c>
       <c r="F195">
         <f t="shared" si="25"/>
         <v>12.2783919597988</v>
       </c>
-      <c r="G195" s="3">
+      <c r="G195" s="4">
         <f t="shared" si="26"/>
         <v>0.000663404847468015</v>
       </c>
-      <c r="H195" s="3">
+      <c r="H195" s="4">
         <f t="shared" si="27"/>
         <v>-0.0025439872792534</v>
       </c>
-      <c r="I195" s="3">
+      <c r="I195" s="4">
         <f t="shared" si="28"/>
         <v>-0.009344418966759</v>
       </c>
-      <c r="J195" s="3">
+      <c r="J195" s="4">
         <f t="shared" si="29"/>
         <v>5.12511367899937</v>
       </c>
@@ -8234,27 +8238,27 @@
       <c r="D196">
         <v>1.71655436928132</v>
       </c>
-      <c r="E196" s="4">
+      <c r="E196" s="5">
         <v>1.06556511554159e-7</v>
       </c>
       <c r="F196">
-        <f>F195+0.0369346733668338</f>
+        <f t="shared" si="25"/>
         <v>12.3153266331657</v>
       </c>
-      <c r="G196" s="3">
-        <f>5/2*(1/C196+1/C195)*(C196-C195)</f>
+      <c r="G196" s="4">
+        <f t="shared" si="26"/>
         <v>0.000649249279075053</v>
       </c>
-      <c r="H196" s="3">
-        <f>(1/B196+1/B195)*(B196-B195)</f>
+      <c r="H196" s="4">
+        <f t="shared" si="27"/>
         <v>-0.00256753906896408</v>
       </c>
-      <c r="I196" s="3">
-        <f>83140000/2.4942*(G196+H196)/((E195+E196)*31560000000000)</f>
+      <c r="I196" s="4">
+        <f t="shared" si="28"/>
         <v>-0.00951532433140849</v>
       </c>
-      <c r="J196" s="3">
-        <f>J195+I196</f>
+      <c r="J196" s="4">
+        <f t="shared" si="29"/>
         <v>5.11559835466797</v>
       </c>
     </row>
@@ -8271,27 +8275,27 @@
       <c r="D197">
         <v>1.725718761418</v>
       </c>
-      <c r="E197" s="4">
+      <c r="E197" s="5">
         <v>1.06744580941945e-7</v>
       </c>
       <c r="F197">
-        <f>F196+0.0369346733668338</f>
+        <f t="shared" si="25"/>
         <v>12.3522613065325</v>
       </c>
-      <c r="G197" s="3">
-        <f>5/2*(1/C197+1/C196)*(C197-C196)</f>
+      <c r="G197" s="4">
+        <f t="shared" si="26"/>
         <v>0.000636465396163441</v>
       </c>
-      <c r="H197" s="3">
-        <f>(1/B197+1/B196)*(B197-B196)</f>
+      <c r="H197" s="4">
+        <f t="shared" si="27"/>
         <v>-0.00259037367563387</v>
       </c>
-      <c r="I197" s="3">
-        <f>83140000/2.4942*(G197+H197)/((E196+E197)*31560000000000)</f>
+      <c r="I197" s="4">
+        <f t="shared" si="28"/>
         <v>-0.00967504166746484</v>
       </c>
-      <c r="J197" s="3">
-        <f>J196+I197</f>
+      <c r="J197" s="4">
+        <f t="shared" si="29"/>
         <v>5.1059233130005</v>
       </c>
     </row>
@@ -8308,27 +8312,27 @@
       <c r="D198">
         <v>1.73491743255563</v>
       </c>
-      <c r="E198" s="4">
+      <c r="E198" s="5">
         <v>1.06935329485079e-7</v>
       </c>
       <c r="F198">
-        <f>F197+0.0369346733668338</f>
+        <f t="shared" si="25"/>
         <v>12.3891959798993</v>
       </c>
-      <c r="G198" s="3">
-        <f>5/2*(1/C198+1/C197)*(C198-C197)</f>
+      <c r="G198" s="4">
+        <f t="shared" si="26"/>
         <v>0.00062243060551922</v>
       </c>
-      <c r="H198" s="3">
-        <f>(1/B198+1/B197)*(B198-B197)</f>
+      <c r="H198" s="4">
+        <f t="shared" si="27"/>
         <v>-0.00261291326903736</v>
       </c>
-      <c r="I198" s="3">
-        <f>83140000/2.4942*(G198+H198)/((E197+E198)*31560000000000)</f>
+      <c r="I198" s="4">
+        <f t="shared" si="28"/>
         <v>-0.00983867142853995</v>
       </c>
-      <c r="J198" s="3">
-        <f>J197+I198</f>
+      <c r="J198" s="4">
+        <f t="shared" si="29"/>
         <v>5.09608464157196</v>
       </c>
     </row>
@@ -8345,27 +8349,27 @@
       <c r="D199">
         <v>1.74415195203205</v>
       </c>
-      <c r="E199" s="4">
+      <c r="E199" s="5">
         <v>1.07128848538327e-7</v>
       </c>
       <c r="F199">
-        <f>F198+0.0369346733668338</f>
+        <f t="shared" si="25"/>
         <v>12.4261306532662</v>
       </c>
-      <c r="G199" s="3">
-        <f>5/2*(1/C199+1/C198)*(C199-C198)</f>
+      <c r="G199" s="4">
+        <f t="shared" si="26"/>
         <v>0.000610711216890585</v>
       </c>
-      <c r="H199" s="3">
-        <f>(1/B199+1/B198)*(B199-B198)</f>
+      <c r="H199" s="4">
+        <f t="shared" si="27"/>
         <v>-0.00263511807783251</v>
       </c>
-      <c r="I199" s="3">
-        <f>83140000/2.4942*(G199+H199)/((E198+E199)*31560000000000)</f>
+      <c r="I199" s="4">
+        <f t="shared" si="28"/>
         <v>-0.00998839143754333</v>
       </c>
-      <c r="J199" s="3">
-        <f>J198+I199</f>
+      <c r="J199" s="4">
+        <f t="shared" si="29"/>
         <v>5.08609625013442</v>
       </c>
     </row>
@@ -8382,27 +8386,27 @@
       <c r="D200">
         <v>1.75342030992254</v>
       </c>
-      <c r="E200" s="4">
+      <c r="E200" s="5">
         <v>1.0732497454956e-7</v>
       </c>
       <c r="F200">
-        <f>F199+0.0369346733668338</f>
+        <f t="shared" si="25"/>
         <v>12.463065326633</v>
       </c>
-      <c r="G200" s="3">
-        <f>5/2*(1/C200+1/C199)*(C200-C199)</f>
+      <c r="G200" s="4">
+        <f t="shared" si="26"/>
         <v>0.000597074137338682</v>
       </c>
-      <c r="H200" s="3">
-        <f>(1/B200+1/B199)*(B200-B199)</f>
+      <c r="H200" s="4">
+        <f t="shared" si="27"/>
         <v>-0.00265652702872323</v>
       </c>
-      <c r="I200" s="3">
-        <f>83140000/2.4942*(G200+H200)/((E199+E200)*31560000000000)</f>
+      <c r="I200" s="4">
+        <f t="shared" si="28"/>
         <v>-0.0101428457316005</v>
       </c>
-      <c r="J200" s="3">
-        <f>J199+I200</f>
+      <c r="J200" s="4">
+        <f t="shared" si="29"/>
         <v>5.07595340440282</v>
       </c>
     </row>
@@ -8419,27 +8423,27 @@
       <c r="D201">
         <v>1.76272307150755</v>
       </c>
-      <c r="E201" s="4">
+      <c r="E201" s="5">
         <v>1.07523751271062e-7</v>
       </c>
       <c r="F201">
-        <f>F200+0.0369346733668338</f>
+        <f t="shared" si="25"/>
         <v>12.4999999999998</v>
       </c>
-      <c r="G201" s="3">
-        <f>5/2*(1/C201+1/C200)*(C201-C200)</f>
+      <c r="G201" s="4">
+        <f t="shared" si="26"/>
         <v>0.000584672590187206</v>
       </c>
-      <c r="H201" s="3">
-        <f>(1/B201+1/B200)*(B201-B200)</f>
+      <c r="H201" s="4">
+        <f t="shared" si="27"/>
         <v>-0.00267742954522448</v>
       </c>
-      <c r="I201" s="3">
-        <f>83140000/2.4942*(G201+H201)/((E200+E201)*31560000000000)</f>
+      <c r="I201" s="4">
+        <f t="shared" si="28"/>
         <v>-0.0102879243539281</v>
       </c>
-      <c r="J201" s="3">
-        <f>J200+I201</f>
+      <c r="J201" s="4">
+        <f t="shared" si="29"/>
         <v>5.06566548004889</v>
       </c>
     </row>
